--- a/investing spreadsheets/TSLA.xlsx
+++ b/investing spreadsheets/TSLA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -722,10 +722,10 @@
   <dimension ref="B2:ED61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AF4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM36" sqref="AM36"/>
+      <selection pane="bottomRight" activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -925,11 +925,11 @@
         <v>321165</v>
       </c>
       <c r="Z6" s="2">
-        <f>Y6*1.1</f>
+        <f t="shared" ref="Z6:AJ6" si="2">Y6*1.1</f>
         <v>353281.5</v>
       </c>
       <c r="AA6" s="2">
-        <f t="shared" ref="AA6:AJ6" si="2">Z6*1.1</f>
+        <f t="shared" si="2"/>
         <v>388609.65</v>
       </c>
       <c r="AB6" s="2">
@@ -1115,27 +1115,27 @@
         <v>1181852</v>
       </c>
       <c r="M12" s="2">
-        <f>M6*M30/1000</f>
+        <f t="shared" ref="M12:R12" si="6">M6*M30/1000</f>
         <v>1622509.8184791496</v>
       </c>
       <c r="N12" s="2">
-        <f>N6*N30/1000</f>
+        <f t="shared" si="6"/>
         <v>1815780.7914963204</v>
       </c>
       <c r="O12" s="2">
-        <f>O6*O30/1000</f>
+        <f t="shared" si="6"/>
         <v>2009051.7645134914</v>
       </c>
       <c r="P12" s="2">
-        <f>P6*P30/1000</f>
+        <f t="shared" si="6"/>
         <v>2202322.7375306627</v>
       </c>
       <c r="Q12" s="2">
-        <f>Q6*Q30/1000</f>
+        <f t="shared" si="6"/>
         <v>2395593.7105478332</v>
       </c>
       <c r="R12" s="2">
-        <f>R6*R30/1000</f>
+        <f t="shared" si="6"/>
         <v>2588864.6835650043</v>
       </c>
       <c r="T12" s="2">
@@ -1158,51 +1158,51 @@
         <v>11826415.8440139</v>
       </c>
       <c r="Y12" s="2">
-        <f t="shared" ref="Y12:AJ12" si="6">Y6*Y30/1000</f>
+        <f t="shared" ref="Y12:AJ12" si="7">Y6*Y30/1000</f>
         <v>16852642.577719804</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17611011.493717194</v>
       </c>
       <c r="AA12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18403507.010934468</v>
       </c>
       <c r="AB12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19231664.826426517</v>
       </c>
       <c r="AC12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20097089.743615717</v>
       </c>
       <c r="AD12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21001458.782078419</v>
       </c>
       <c r="AE12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21946524.427271951</v>
       </c>
       <c r="AF12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22934118.026499189</v>
       </c>
       <c r="AG12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23966153.337691654</v>
       </c>
       <c r="AH12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25044630.237887789</v>
       </c>
       <c r="AI12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26171638.59859274</v>
       </c>
       <c r="AJ12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27349362.335529413</v>
       </c>
     </row>
@@ -1245,23 +1245,23 @@
         <v>86761.02</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" ref="N13:R13" si="7">J13*1.03</f>
+        <f t="shared" ref="N13:R13" si="8">J13*1.03</f>
         <v>100293.16</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>124613.52</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>90809.95</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>89363.850600000005</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>103301.95480000001</v>
       </c>
       <c r="T13" s="2">
@@ -1284,51 +1284,51 @@
         <v>448898.20294000005</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" ref="Y13:AJ13" si="8">X13*1.1</f>
+        <f t="shared" ref="Y13:AJ13" si="9">X13*1.1</f>
         <v>493788.02323400008</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>543166.82555740012</v>
       </c>
       <c r="AA13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>597483.50811314024</v>
       </c>
       <c r="AB13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>657231.85892445431</v>
       </c>
       <c r="AC13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>722955.04481689981</v>
       </c>
       <c r="AD13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>795250.54929858982</v>
       </c>
       <c r="AE13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>874775.60422844882</v>
       </c>
       <c r="AF13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>962253.16465129377</v>
       </c>
       <c r="AG13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1058478.4811164232</v>
       </c>
       <c r="AH13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1164326.3292280657</v>
       </c>
       <c r="AI13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1280758.9621508725</v>
       </c>
       <c r="AJ13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1408834.8583659597</v>
       </c>
     </row>
@@ -1337,67 +1337,67 @@
         <v>22</v>
       </c>
       <c r="C14" s="4">
-        <f>C12+C13</f>
+        <f t="shared" ref="C14:L14" si="10">C12+C13</f>
         <v>620542</v>
       </c>
       <c r="D14" s="4">
-        <f>D12+D13</f>
+        <f t="shared" si="10"/>
         <v>769349</v>
       </c>
       <c r="E14" s="4">
-        <f>E12+E13</f>
+        <f t="shared" si="10"/>
         <v>851804</v>
       </c>
       <c r="F14" s="4">
-        <f>F12+F13</f>
+        <f t="shared" si="10"/>
         <v>956661</v>
       </c>
       <c r="G14" s="4">
-        <f>G12+G13</f>
+        <f t="shared" si="10"/>
         <v>939880</v>
       </c>
       <c r="H14" s="4">
-        <f>H12+H13</f>
+        <f t="shared" si="10"/>
         <v>954976</v>
       </c>
       <c r="I14" s="4">
-        <f>I12+I13</f>
+        <f t="shared" si="10"/>
         <v>936789</v>
       </c>
       <c r="J14" s="4">
-        <f>J12+J13</f>
+        <f t="shared" si="10"/>
         <v>1214379</v>
       </c>
       <c r="K14" s="4">
-        <f>K12+K13</f>
+        <f t="shared" si="10"/>
         <v>1147048</v>
       </c>
       <c r="L14" s="4">
-        <f>L12+L13</f>
+        <f t="shared" si="10"/>
         <v>1270017</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" ref="M14:R14" si="9">M12+M13</f>
+        <f t="shared" ref="M14:R14" si="11">M12+M13</f>
         <v>1709270.8384791496</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1916073.9514963203</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2133665.2845134912</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2293132.6875306629</v>
       </c>
       <c r="Q14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2484957.5611478332</v>
       </c>
       <c r="R14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2692166.6383650042</v>
       </c>
       <c r="T14" s="4">
@@ -1416,55 +1416,55 @@
         <v>9603922.1715569906</v>
       </c>
       <c r="X14" s="4">
-        <f t="shared" ref="X14:AJ14" si="10">X12+X13</f>
+        <f t="shared" ref="X14:AJ14" si="12">X12+X13</f>
         <v>12275314.0469539</v>
       </c>
       <c r="Y14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>17346430.600953802</v>
       </c>
       <c r="Z14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>18154178.319274593</v>
       </c>
       <c r="AA14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>19000990.51904761</v>
       </c>
       <c r="AB14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>19888896.685350973</v>
       </c>
       <c r="AC14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20820044.788432617</v>
       </c>
       <c r="AD14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>21796709.331377007</v>
       </c>
       <c r="AE14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>22821300.031500399</v>
       </c>
       <c r="AF14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>23896371.191150483</v>
       </c>
       <c r="AG14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>25024631.818808075</v>
       </c>
       <c r="AH14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>26208956.567115854</v>
       </c>
       <c r="AI14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>27452397.560743611</v>
       </c>
       <c r="AJ14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28758197.193895373</v>
       </c>
     </row>
@@ -1565,43 +1565,43 @@
         <v>36</v>
       </c>
       <c r="C17" s="2">
-        <f>C15+C16</f>
+        <f t="shared" ref="C17:L17" si="13">C15+C16</f>
         <v>465414</v>
       </c>
       <c r="D17" s="2">
-        <f>D15+D16</f>
+        <f t="shared" si="13"/>
         <v>556354</v>
       </c>
       <c r="E17" s="2">
-        <f>E15+E16</f>
+        <f t="shared" si="13"/>
         <v>599953</v>
       </c>
       <c r="F17" s="2">
-        <f>F15+F16</f>
+        <f t="shared" si="13"/>
         <v>694964</v>
       </c>
       <c r="G17" s="2">
-        <f>G15+G16</f>
+        <f t="shared" si="13"/>
         <v>679807</v>
       </c>
       <c r="H17" s="2">
-        <f>H15+H16</f>
+        <f t="shared" si="13"/>
         <v>741606</v>
       </c>
       <c r="I17" s="2">
-        <f>I15+I16</f>
+        <f t="shared" si="13"/>
         <v>705293</v>
       </c>
       <c r="J17" s="2">
-        <f>J15+J16</f>
+        <f t="shared" si="13"/>
         <v>995815</v>
       </c>
       <c r="K17" s="2">
-        <f>K15+K16</f>
+        <f t="shared" si="13"/>
         <v>894580</v>
       </c>
       <c r="L17" s="2">
-        <f>L15+L16</f>
+        <f t="shared" si="13"/>
         <v>995241</v>
       </c>
       <c r="M17" s="2">
@@ -1609,23 +1609,23 @@
         <v>1281953.1288593621</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" ref="N17:R17" si="11">N14-N18</f>
+        <f t="shared" ref="N17:R17" si="14">N14-N18</f>
         <v>1437055.4636222403</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1600248.9633851184</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1719849.5156479971</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1863718.1708608749</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2019124.9787737532</v>
       </c>
       <c r="T17" s="2">
@@ -1648,51 +1648,51 @@
         <v>9206485.5352154244</v>
       </c>
       <c r="Y17" s="2">
-        <f t="shared" ref="Y17:AJ17" si="12">Y14-Y18</f>
+        <f t="shared" ref="Y17:AJ17" si="15">Y14-Y18</f>
         <v>13009822.950715352</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>13615633.739455946</v>
       </c>
       <c r="AA17" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>14060732.984095231</v>
       </c>
       <c r="AB17" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>14717783.54715972</v>
       </c>
       <c r="AC17" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>15406833.143440135</v>
       </c>
       <c r="AD17" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>15911597.811905215</v>
       </c>
       <c r="AE17" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>16659549.022995291</v>
       </c>
       <c r="AF17" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>17444350.969539851</v>
       </c>
       <c r="AG17" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>18017734.909541816</v>
       </c>
       <c r="AH17" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>18870448.728323415</v>
       </c>
       <c r="AI17" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>19765726.243735399</v>
       </c>
       <c r="AJ17" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>20705901.979604669</v>
       </c>
     </row>
@@ -1701,43 +1701,43 @@
         <v>37</v>
       </c>
       <c r="C18" s="4">
-        <f>C14-C17</f>
+        <f t="shared" ref="C18:L18" si="16">C14-C17</f>
         <v>155128</v>
       </c>
       <c r="D18" s="4">
-        <f>D14-D17</f>
+        <f t="shared" si="16"/>
         <v>212995</v>
       </c>
       <c r="E18" s="4">
-        <f>E14-E17</f>
+        <f t="shared" si="16"/>
         <v>251851</v>
       </c>
       <c r="F18" s="4">
-        <f>F14-F17</f>
+        <f t="shared" si="16"/>
         <v>261697</v>
       </c>
       <c r="G18" s="4">
-        <f>G14-G17</f>
+        <f t="shared" si="16"/>
         <v>260073</v>
       </c>
       <c r="H18" s="4">
-        <f>H14-H17</f>
+        <f t="shared" si="16"/>
         <v>213370</v>
       </c>
       <c r="I18" s="4">
-        <f>I14-I17</f>
+        <f t="shared" si="16"/>
         <v>231496</v>
       </c>
       <c r="J18" s="4">
-        <f>J14-J17</f>
+        <f t="shared" si="16"/>
         <v>218564</v>
       </c>
       <c r="K18" s="4">
-        <f>K14-K17</f>
+        <f t="shared" si="16"/>
         <v>252468</v>
       </c>
       <c r="L18" s="4">
-        <f>L14-L17</f>
+        <f t="shared" si="16"/>
         <v>274776</v>
       </c>
       <c r="M18" s="4">
@@ -1745,23 +1745,23 @@
         <v>427317.70961978741</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" ref="N18:R18" si="13">N14*0.25</f>
+        <f t="shared" ref="N18:R18" si="17">N14*0.25</f>
         <v>479018.48787408008</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>533416.3211283728</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>573283.17188266572</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>621239.39028695831</v>
       </c>
       <c r="R18" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>673041.65959125105</v>
       </c>
       <c r="T18" s="4">
@@ -1784,11 +1784,11 @@
         <v>3068828.5117384749</v>
       </c>
       <c r="Y18" s="4">
-        <f t="shared" ref="Y18:Z18" si="14">Y14*0.25</f>
+        <f t="shared" ref="Y18:Z18" si="18">Y14*0.25</f>
         <v>4336607.6502384506</v>
       </c>
       <c r="Z18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4538544.5798186483</v>
       </c>
       <c r="AA18" s="4">
@@ -1796,11 +1796,11 @@
         <v>4940257.5349523788</v>
       </c>
       <c r="AB18" s="4">
-        <f t="shared" ref="AB18:AC18" si="15">AB14*0.26</f>
+        <f t="shared" ref="AB18:AC18" si="19">AB14*0.26</f>
         <v>5171113.1381912529</v>
       </c>
       <c r="AC18" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>5413211.644992481</v>
       </c>
       <c r="AD18" s="4">
@@ -1808,11 +1808,11 @@
         <v>5885111.5194717925</v>
       </c>
       <c r="AE18" s="4">
-        <f t="shared" ref="AE18:AF18" si="16">AE14*0.27</f>
+        <f t="shared" ref="AE18:AF18" si="20">AE14*0.27</f>
         <v>6161751.0085051078</v>
       </c>
       <c r="AF18" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>6452020.2216106309</v>
       </c>
       <c r="AG18" s="4">
@@ -1820,15 +1820,15 @@
         <v>7006896.9092662614</v>
       </c>
       <c r="AH18" s="4">
-        <f t="shared" ref="AH18:AJ18" si="17">AH14*0.28</f>
+        <f t="shared" ref="AH18:AJ18" si="21">AH14*0.28</f>
         <v>7338507.8387924396</v>
       </c>
       <c r="AI18" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7686671.3170082122</v>
       </c>
       <c r="AJ18" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8052295.2142907055</v>
       </c>
     </row>
@@ -1871,23 +1871,23 @@
         <v>193580.64</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" ref="N19:R19" si="18">M19*1.01</f>
+        <f t="shared" ref="N19:R19" si="22">M19*1.01</f>
         <v>195516.44640000002</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>197471.61086400002</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>199446.32697264003</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>201440.79024236643</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>203455.19814479011</v>
       </c>
       <c r="T19" s="2">
@@ -1898,7 +1898,7 @@
         <v>717900</v>
       </c>
       <c r="V19" s="2">
-        <f t="shared" ref="V19:V25" si="19">SUM(K19:N19)</f>
+        <f t="shared" ref="V19:V25" si="23">SUM(K19:N19)</f>
         <v>763243.08640000003</v>
       </c>
       <c r="W19" s="2">
@@ -1910,51 +1910,51 @@
         <v>817850.20474827266</v>
       </c>
       <c r="Y19" s="2">
-        <f t="shared" ref="Y19:AJ19" si="20">X19*1.02</f>
+        <f t="shared" ref="Y19:AJ19" si="24">X19*1.02</f>
         <v>834207.20884323819</v>
       </c>
       <c r="Z19" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>850891.35302010295</v>
       </c>
       <c r="AA19" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>867909.18008050497</v>
       </c>
       <c r="AB19" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>885267.3636821151</v>
       </c>
       <c r="AC19" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>902972.71095575741</v>
       </c>
       <c r="AD19" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>921032.16517487261</v>
       </c>
       <c r="AE19" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>939452.80847837008</v>
       </c>
       <c r="AF19" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>958241.86464793747</v>
       </c>
       <c r="AG19" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>977406.70194089622</v>
       </c>
       <c r="AH19" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>996954.83597971417</v>
       </c>
       <c r="AI19" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1016893.9326993085</v>
       </c>
       <c r="AJ19" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1037231.8113532946</v>
       </c>
     </row>
@@ -1997,23 +1997,23 @@
         <v>324363.52000000002</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" ref="N20:R20" si="21">M20*1.01</f>
+        <f t="shared" ref="N20:R20" si="25">M20*1.01</f>
         <v>327607.15520000004</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>330883.22675200005</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>334192.05901952006</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>337533.97960971529</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>340909.31940581242</v>
       </c>
       <c r="T20" s="2">
@@ -2024,7 +2024,7 @@
         <v>922232</v>
       </c>
       <c r="V20" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1291332.6751999999</v>
       </c>
       <c r="W20" s="2">
@@ -2036,51 +2036,51 @@
         <v>1383824.1423306593</v>
       </c>
       <c r="Y20" s="2">
-        <f t="shared" ref="Y20:AJ20" si="22">X20*1.03</f>
+        <f t="shared" ref="Y20:AJ20" si="26">X20*1.03</f>
         <v>1425338.8666005791</v>
       </c>
       <c r="Z20" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1468099.0325985965</v>
       </c>
       <c r="AA20" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1512142.0035765544</v>
       </c>
       <c r="AB20" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1557506.2636838511</v>
       </c>
       <c r="AC20" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1604231.4515943667</v>
       </c>
       <c r="AD20" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1652358.3951421978</v>
       </c>
       <c r="AE20" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1701929.1469964639</v>
       </c>
       <c r="AF20" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1752987.0214063579</v>
       </c>
       <c r="AG20" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1805576.6320485487</v>
       </c>
       <c r="AH20" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1859743.9310100051</v>
       </c>
       <c r="AI20" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1915536.2489403053</v>
       </c>
       <c r="AJ20" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1973002.3364085145</v>
       </c>
     </row>
@@ -2089,67 +2089,67 @@
         <v>40</v>
       </c>
       <c r="C21" s="2">
-        <f>C19+C20</f>
+        <f t="shared" ref="C21:L21" si="27">C19+C20</f>
         <v>199095</v>
       </c>
       <c r="D21" s="2">
-        <f>D19+D20</f>
+        <f t="shared" si="27"/>
         <v>241748</v>
       </c>
       <c r="E21" s="2">
-        <f>E19+E20</f>
+        <f t="shared" si="27"/>
         <v>290980</v>
       </c>
       <c r="F21" s="2">
-        <f>F19+F20</f>
+        <f t="shared" si="27"/>
         <v>336535</v>
       </c>
       <c r="G21" s="2">
-        <f>G19+G20</f>
+        <f t="shared" si="27"/>
         <v>362519</v>
       </c>
       <c r="H21" s="2">
-        <f>H19+H20</f>
+        <f t="shared" si="27"/>
         <v>383558</v>
       </c>
       <c r="I21" s="2">
-        <f>I19+I20</f>
+        <f t="shared" si="27"/>
         <v>415158</v>
       </c>
       <c r="J21" s="2">
-        <f>J19+J20</f>
+        <f t="shared" si="27"/>
         <v>478897</v>
       </c>
       <c r="K21" s="2">
-        <f>K19+K20</f>
+        <f t="shared" si="27"/>
         <v>500692</v>
       </c>
       <c r="L21" s="2">
-        <f>L19+L20</f>
+        <f t="shared" si="27"/>
         <v>512816</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" ref="M21:R21" si="23">M19+M20</f>
+        <f t="shared" ref="M21:R21" si="28">M19+M20</f>
         <v>517944.16000000003</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>523123.60160000005</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>528354.83761600009</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>533638.38599216007</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>538974.76985208178</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>544364.51755060256</v>
       </c>
       <c r="T21" s="2">
@@ -2157,67 +2157,67 @@
         <v>1068358</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" ref="U21:W21" si="24">U19+U20</f>
+        <f t="shared" ref="U21:W21" si="29">U19+U20</f>
         <v>1640132</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>2054575.7615999999</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>2145332.5110108447</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" ref="X21" si="25">X19+X20</f>
+        <f t="shared" ref="X21" si="30">X19+X20</f>
         <v>2201674.347078932</v>
       </c>
       <c r="Y21" s="2">
-        <f t="shared" ref="Y21" si="26">Y19+Y20</f>
+        <f t="shared" ref="Y21" si="31">Y19+Y20</f>
         <v>2259546.0754438173</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" ref="Z21" si="27">Z19+Z20</f>
+        <f t="shared" ref="Z21" si="32">Z19+Z20</f>
         <v>2318990.3856186997</v>
       </c>
       <c r="AA21" s="2">
-        <f t="shared" ref="AA21" si="28">AA19+AA20</f>
+        <f t="shared" ref="AA21" si="33">AA19+AA20</f>
         <v>2380051.1836570594</v>
       </c>
       <c r="AB21" s="2">
-        <f t="shared" ref="AB21" si="29">AB19+AB20</f>
+        <f t="shared" ref="AB21" si="34">AB19+AB20</f>
         <v>2442773.6273659663</v>
       </c>
       <c r="AC21" s="2">
-        <f t="shared" ref="AC21" si="30">AC19+AC20</f>
+        <f t="shared" ref="AC21" si="35">AC19+AC20</f>
         <v>2507204.1625501243</v>
       </c>
       <c r="AD21" s="2">
-        <f t="shared" ref="AD21" si="31">AD19+AD20</f>
+        <f t="shared" ref="AD21" si="36">AD19+AD20</f>
         <v>2573390.5603170702</v>
       </c>
       <c r="AE21" s="2">
-        <f t="shared" ref="AE21" si="32">AE19+AE20</f>
+        <f t="shared" ref="AE21" si="37">AE19+AE20</f>
         <v>2641381.955474834</v>
       </c>
       <c r="AF21" s="2">
-        <f t="shared" ref="AF21" si="33">AF19+AF20</f>
+        <f t="shared" ref="AF21" si="38">AF19+AF20</f>
         <v>2711228.8860542951</v>
       </c>
       <c r="AG21" s="2">
-        <f t="shared" ref="AG21" si="34">AG19+AG20</f>
+        <f t="shared" ref="AG21" si="39">AG19+AG20</f>
         <v>2782983.3339894451</v>
       </c>
       <c r="AH21" s="2">
-        <f t="shared" ref="AH21" si="35">AH19+AH20</f>
+        <f t="shared" ref="AH21" si="40">AH19+AH20</f>
         <v>2856698.7669897191</v>
       </c>
       <c r="AI21" s="2">
-        <f t="shared" ref="AI21" si="36">AI19+AI20</f>
+        <f t="shared" ref="AI21" si="41">AI19+AI20</f>
         <v>2932430.1816396136</v>
       </c>
       <c r="AJ21" s="2">
-        <f t="shared" ref="AJ21" si="37">AJ19+AJ20</f>
+        <f t="shared" ref="AJ21" si="42">AJ19+AJ20</f>
         <v>3010234.1477618092</v>
       </c>
     </row>
@@ -2226,67 +2226,67 @@
         <v>46</v>
       </c>
       <c r="C22" s="4">
-        <f>C18-C21</f>
+        <f t="shared" ref="C22:L22" si="43">C18-C21</f>
         <v>-43967</v>
       </c>
       <c r="D22" s="4">
-        <f>D18-D21</f>
+        <f t="shared" si="43"/>
         <v>-28753</v>
       </c>
       <c r="E22" s="4">
-        <f>E18-E21</f>
+        <f t="shared" si="43"/>
         <v>-39129</v>
       </c>
       <c r="F22" s="4">
-        <f>F18-F21</f>
+        <f t="shared" si="43"/>
         <v>-74838</v>
       </c>
       <c r="G22" s="4">
-        <f>G18-G21</f>
+        <f t="shared" si="43"/>
         <v>-102446</v>
       </c>
       <c r="H22" s="4">
-        <f>H18-H21</f>
+        <f t="shared" si="43"/>
         <v>-170188</v>
       </c>
       <c r="I22" s="4">
-        <f>I18-I21</f>
+        <f t="shared" si="43"/>
         <v>-183662</v>
       </c>
       <c r="J22" s="4">
-        <f>J18-J21</f>
+        <f t="shared" si="43"/>
         <v>-260333</v>
       </c>
       <c r="K22" s="4">
-        <f>K18-K21</f>
+        <f t="shared" si="43"/>
         <v>-248224</v>
       </c>
       <c r="L22" s="4">
-        <f>L18-L21</f>
+        <f t="shared" si="43"/>
         <v>-238040</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" ref="M22:R22" si="38">M18-M21</f>
+        <f t="shared" ref="M22:R22" si="44">M18-M21</f>
         <v>-90626.450380212627</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>-44105.113725919975</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>5061.4835123727098</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>39644.785890505649</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>82264.620434876531</v>
       </c>
       <c r="R22" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>128677.1420406485</v>
       </c>
       <c r="T22" s="4">
@@ -2305,55 +2305,55 @@
         <v>255648.03187840292</v>
       </c>
       <c r="X22" s="4">
-        <f t="shared" ref="X22:AJ22" si="39">X18-X21</f>
+        <f t="shared" ref="X22:AJ22" si="45">X18-X21</f>
         <v>867154.16465954296</v>
       </c>
       <c r="Y22" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>2077061.5747946333</v>
       </c>
       <c r="Z22" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>2219554.1941999486</v>
       </c>
       <c r="AA22" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>2560206.3512953194</v>
       </c>
       <c r="AB22" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>2728339.5108252866</v>
       </c>
       <c r="AC22" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>2906007.4824423566</v>
       </c>
       <c r="AD22" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>3311720.9591547223</v>
       </c>
       <c r="AE22" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>3520369.0530302739</v>
       </c>
       <c r="AF22" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>3740791.3355563357</v>
       </c>
       <c r="AG22" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>4223913.5752768163</v>
       </c>
       <c r="AH22" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>4481809.0718027204</v>
       </c>
       <c r="AI22" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>4754241.1353685986</v>
       </c>
       <c r="AJ22" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>5042061.0665288959</v>
       </c>
     </row>
@@ -2406,23 +2406,23 @@
         <v>-51499</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" ref="N23:R23" si="40">M23</f>
+        <f t="shared" ref="N23:R23" si="46">M23</f>
         <v>-51499</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>-51499</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>-51499</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>-51499</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>-51499</v>
       </c>
       <c r="T23" s="2">
@@ -2433,7 +2433,7 @@
         <v>-117343</v>
       </c>
       <c r="V23" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-184694</v>
       </c>
       <c r="W23" s="2">
@@ -2450,43 +2450,43 @@
         <v>59196.254881647052</v>
       </c>
       <c r="AA23" s="2">
-        <f t="shared" ref="AA23:AJ23" si="41">Z41*$AM$29</f>
+        <f t="shared" ref="AA23:AJ23" si="47">Z41*$AM$29</f>
         <v>64944.387798825475</v>
       </c>
       <c r="AB23" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>74816.796064183116</v>
       </c>
       <c r="AC23" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>77387.560610608125</v>
       </c>
       <c r="AD23" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>112342.11491378509</v>
       </c>
       <c r="AE23" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>156782.05249259947</v>
       </c>
       <c r="AF23" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>169743.19430622735</v>
       </c>
       <c r="AG23" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>186267.03016526616</v>
       </c>
       <c r="AH23" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>203077.70786570746</v>
       </c>
       <c r="AI23" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>245861.38813433528</v>
       </c>
       <c r="AJ23" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>299284.9744124331</v>
       </c>
     </row>
@@ -2495,67 +2495,67 @@
         <v>42</v>
       </c>
       <c r="C24" s="2">
-        <f>SUM(C22:C23)</f>
+        <f t="shared" ref="C24:L24" si="48">SUM(C22:C23)</f>
         <v>-62427</v>
       </c>
       <c r="D24" s="2">
-        <f>SUM(D22:D23)</f>
+        <f t="shared" si="48"/>
         <v>-60750</v>
       </c>
       <c r="E24" s="2">
-        <f>SUM(E22:E23)</f>
+        <f t="shared" si="48"/>
         <v>-70981</v>
       </c>
       <c r="F24" s="2">
-        <f>SUM(F22:F23)</f>
+        <f t="shared" si="48"/>
         <v>-103880</v>
       </c>
       <c r="G24" s="2">
-        <f>SUM(G22:G23)</f>
+        <f t="shared" si="48"/>
         <v>-151141</v>
       </c>
       <c r="H24" s="2">
-        <f>SUM(H22:H23)</f>
+        <f t="shared" si="48"/>
         <v>-207526</v>
       </c>
       <c r="I24" s="2">
-        <f>SUM(I22:I23)</f>
+        <f t="shared" si="48"/>
         <v>-228074</v>
       </c>
       <c r="J24" s="2">
-        <f>SUM(J22:J23)</f>
+        <f t="shared" si="48"/>
         <v>-315349</v>
       </c>
       <c r="K24" s="2">
-        <f>SUM(K22:K23)</f>
+        <f t="shared" si="48"/>
         <v>-278421</v>
       </c>
       <c r="L24" s="2">
-        <f>SUM(L22:L23)</f>
+        <f t="shared" si="48"/>
         <v>-289539</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" ref="M24:R24" si="42">SUM(M22:M23)</f>
+        <f t="shared" ref="M24:R24" si="49">SUM(M22:M23)</f>
         <v>-142125.45038021263</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>-95604.113725919975</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>-46437.51648762729</v>
       </c>
       <c r="P24" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>-11854.214109494351</v>
       </c>
       <c r="Q24" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>30765.620434876531</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>77178.142040648498</v>
       </c>
       <c r="T24" s="2">
@@ -2566,7 +2566,7 @@
         <v>-875624</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-805689.5641061326</v>
       </c>
       <c r="W24" s="2">
@@ -2578,51 +2578,51 @@
         <v>867154.16465954296</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" ref="Y24:AJ24" si="43">Y22+Y23</f>
+        <f t="shared" ref="Y24:AJ24" si="50">Y22+Y23</f>
         <v>2077061.5747946333</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>2278750.4490815955</v>
       </c>
       <c r="AA24" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>2625150.7390941447</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>2803156.3068894697</v>
       </c>
       <c r="AC24" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>2983395.0430529648</v>
       </c>
       <c r="AD24" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>3424063.0740685072</v>
       </c>
       <c r="AE24" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>3677151.1055228733</v>
       </c>
       <c r="AF24" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>3910534.5298625631</v>
       </c>
       <c r="AG24" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>4410180.6054420825</v>
       </c>
       <c r="AH24" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>4684886.779668428</v>
       </c>
       <c r="AI24" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>5000102.5235029338</v>
       </c>
       <c r="AJ24" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>5341346.0409413287</v>
       </c>
     </row>
@@ -2665,15 +2665,15 @@
         <v>3553.136259505316</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" ref="N25:R25" si="44">N24*-0.025</f>
+        <f t="shared" ref="N25:P25" si="51">N24*-0.025</f>
         <v>2390.1028431479995</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>1160.9379121906823</v>
       </c>
       <c r="P25" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>296.35535273735877</v>
       </c>
       <c r="Q25" s="2">
@@ -2692,7 +2692,7 @@
         <v>13039</v>
       </c>
       <c r="V25" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>13438.239102653315</v>
       </c>
       <c r="W25" s="2">
@@ -2708,47 +2708,47 @@
         <v>103853.07873973167</v>
       </c>
       <c r="Z25" s="2">
-        <f t="shared" ref="Z25:AJ25" si="45">Z24*0.05</f>
+        <f t="shared" ref="Z25:AJ25" si="52">Z24*0.05</f>
         <v>113937.52245407978</v>
       </c>
       <c r="AA25" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>131257.53695470723</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>140157.81534447349</v>
       </c>
       <c r="AC25" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>149169.75215264826</v>
       </c>
       <c r="AD25" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>171203.15370342537</v>
       </c>
       <c r="AE25" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>183857.55527614368</v>
       </c>
       <c r="AF25" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>195526.72649312817</v>
       </c>
       <c r="AG25" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>220509.03027210414</v>
       </c>
       <c r="AH25" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>234244.33898342142</v>
       </c>
       <c r="AI25" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>250005.1261751467</v>
       </c>
       <c r="AJ25" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>267067.30204706645</v>
       </c>
     </row>
@@ -2757,67 +2757,67 @@
         <v>44</v>
       </c>
       <c r="C26" s="4">
-        <f>C24-C25</f>
+        <f t="shared" ref="C26:L26" si="53">C24-C25</f>
         <v>-63236</v>
       </c>
       <c r="D26" s="4">
-        <f>D24-D25</f>
+        <f t="shared" si="53"/>
         <v>-61900</v>
       </c>
       <c r="E26" s="4">
-        <f>E24-E25</f>
+        <f t="shared" si="53"/>
         <v>-74708</v>
       </c>
       <c r="F26" s="4">
-        <f>F24-F25</f>
+        <f t="shared" si="53"/>
         <v>-107599</v>
       </c>
       <c r="G26" s="4">
-        <f>G24-G25</f>
+        <f t="shared" si="53"/>
         <v>-154181</v>
       </c>
       <c r="H26" s="4">
-        <f>H24-H25</f>
+        <f t="shared" si="53"/>
         <v>-210693</v>
       </c>
       <c r="I26" s="4">
-        <f>I24-I25</f>
+        <f t="shared" si="53"/>
         <v>-229858</v>
       </c>
       <c r="J26" s="4">
-        <f>J24-J25</f>
+        <f t="shared" si="53"/>
         <v>-320397</v>
       </c>
       <c r="K26" s="4">
-        <f>K24-K25</f>
+        <f t="shared" si="53"/>
         <v>-282267</v>
       </c>
       <c r="L26" s="4">
-        <f>L24-L25</f>
+        <f t="shared" si="53"/>
         <v>-293188</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" ref="M26:R26" si="46">M24-M25</f>
+        <f t="shared" ref="M26:R26" si="54">M24-M25</f>
         <v>-145678.58663971795</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>-97994.216569067969</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>-47598.454399817972</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>-12150.56946223171</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>31534.760945748443</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>79107.595591664707</v>
       </c>
       <c r="T26" s="4">
@@ -2836,447 +2836,447 @@
         <v>50893.332675363476</v>
       </c>
       <c r="X26" s="4">
-        <f t="shared" ref="X26:AJ26" si="47">X24-X25</f>
+        <f t="shared" ref="X26:AJ26" si="55">X24-X25</f>
         <v>910511.87289252016</v>
       </c>
       <c r="Y26" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>1973208.4960549017</v>
       </c>
       <c r="Z26" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>2164812.9266275158</v>
       </c>
       <c r="AA26" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>2493893.2021394372</v>
       </c>
       <c r="AB26" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>2662998.4915449964</v>
       </c>
       <c r="AC26" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>2834225.2909003166</v>
       </c>
       <c r="AD26" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>3252859.9203650816</v>
       </c>
       <c r="AE26" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>3493293.5502467295</v>
       </c>
       <c r="AF26" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>3715007.803369435</v>
       </c>
       <c r="AG26" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>4189671.5751699782</v>
       </c>
       <c r="AH26" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>4450642.4406850068</v>
       </c>
       <c r="AI26" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>4750097.3973277872</v>
       </c>
       <c r="AJ26" s="4">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>5074278.7388942624</v>
       </c>
       <c r="AK26" s="4">
-        <f>AJ26*(1+$AM$30)</f>
+        <f t="shared" ref="AK26:BP26" si="56">AJ26*(1+$AM$30)</f>
         <v>5023535.9515053201</v>
       </c>
       <c r="AL26" s="4">
-        <f>AK26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>4973300.5919902669</v>
       </c>
       <c r="AM26" s="4">
-        <f>AL26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>4923567.5860703643</v>
       </c>
       <c r="AN26" s="4">
-        <f>AM26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>4874331.9102096604</v>
       </c>
       <c r="AO26" s="4">
-        <f>AN26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>4825588.591107564</v>
       </c>
       <c r="AP26" s="4">
-        <f>AO26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>4777332.7051964886</v>
       </c>
       <c r="AQ26" s="4">
-        <f>AP26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>4729559.3781445241</v>
       </c>
       <c r="AR26" s="4">
-        <f>AQ26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>4682263.7843630789</v>
       </c>
       <c r="AS26" s="4">
-        <f>AR26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>4635441.1465194477</v>
       </c>
       <c r="AT26" s="4">
-        <f>AS26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>4589086.7350542536</v>
       </c>
       <c r="AU26" s="4">
-        <f>AT26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>4543195.8677037107</v>
       </c>
       <c r="AV26" s="4">
-        <f>AU26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>4497763.909026674</v>
       </c>
       <c r="AW26" s="4">
-        <f>AV26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>4452786.269936407</v>
       </c>
       <c r="AX26" s="4">
-        <f>AW26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>4408258.4072370427</v>
       </c>
       <c r="AY26" s="4">
-        <f>AX26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>4364175.8231646726</v>
       </c>
       <c r="AZ26" s="4">
-        <f>AY26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>4320534.0649330262</v>
       </c>
       <c r="BA26" s="4">
-        <f>AZ26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>4277328.7242836962</v>
       </c>
       <c r="BB26" s="4">
-        <f>BA26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>4234555.4370408589</v>
       </c>
       <c r="BC26" s="4">
-        <f>BB26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>4192209.8826704505</v>
       </c>
       <c r="BD26" s="4">
-        <f>BC26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>4150287.7838437459</v>
       </c>
       <c r="BE26" s="4">
-        <f>BD26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>4108784.9060053085</v>
       </c>
       <c r="BF26" s="4">
-        <f>BE26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>4067697.0569452555</v>
       </c>
       <c r="BG26" s="4">
-        <f>BF26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>4027020.0863758028</v>
       </c>
       <c r="BH26" s="4">
-        <f>BG26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>3986749.8855120447</v>
       </c>
       <c r="BI26" s="4">
-        <f>BH26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>3946882.3866569242</v>
       </c>
       <c r="BJ26" s="4">
-        <f>BI26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>3907413.5627903547</v>
       </c>
       <c r="BK26" s="4">
-        <f>BJ26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>3868339.4271624512</v>
       </c>
       <c r="BL26" s="4">
-        <f>BK26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>3829656.0328908265</v>
       </c>
       <c r="BM26" s="4">
-        <f>BL26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>3791359.4725619182</v>
       </c>
       <c r="BN26" s="4">
-        <f>BM26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>3753445.8778362991</v>
       </c>
       <c r="BO26" s="4">
-        <f>BN26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>3715911.4190579359</v>
       </c>
       <c r="BP26" s="4">
-        <f>BO26*(1+$AM$30)</f>
+        <f t="shared" si="56"/>
         <v>3678752.3048673565</v>
       </c>
       <c r="BQ26" s="4">
-        <f>BP26*(1+$AM$30)</f>
+        <f t="shared" ref="BQ26:CV26" si="57">BP26*(1+$AM$30)</f>
         <v>3641964.7818186828</v>
       </c>
       <c r="BR26" s="4">
-        <f>BQ26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>3605545.134000496</v>
       </c>
       <c r="BS26" s="4">
-        <f>BR26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>3569489.6826604912</v>
       </c>
       <c r="BT26" s="4">
-        <f>BS26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>3533794.7858338864</v>
       </c>
       <c r="BU26" s="4">
-        <f>BT26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>3498456.8379755476</v>
       </c>
       <c r="BV26" s="4">
-        <f>BU26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>3463472.2695957921</v>
       </c>
       <c r="BW26" s="4">
-        <f>BV26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>3428837.5468998342</v>
       </c>
       <c r="BX26" s="4">
-        <f>BW26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>3394549.171430836</v>
       </c>
       <c r="BY26" s="4">
-        <f>BX26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>3360603.6797165275</v>
       </c>
       <c r="BZ26" s="4">
-        <f>BY26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>3326997.6429193621</v>
       </c>
       <c r="CA26" s="4">
-        <f>BZ26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>3293727.6664901683</v>
       </c>
       <c r="CB26" s="4">
-        <f>CA26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>3260790.3898252668</v>
       </c>
       <c r="CC26" s="4">
-        <f>CB26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>3228182.4859270141</v>
       </c>
       <c r="CD26" s="4">
-        <f>CC26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>3195900.6610677438</v>
       </c>
       <c r="CE26" s="4">
-        <f>CD26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>3163941.6544570662</v>
       </c>
       <c r="CF26" s="4">
-        <f>CE26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>3132302.2379124956</v>
       </c>
       <c r="CG26" s="4">
-        <f>CF26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>3100979.2155333706</v>
       </c>
       <c r="CH26" s="4">
-        <f>CG26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>3069969.4233780368</v>
       </c>
       <c r="CI26" s="4">
-        <f>CH26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>3039269.7291442566</v>
       </c>
       <c r="CJ26" s="4">
-        <f>CI26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>3008877.0318528139</v>
       </c>
       <c r="CK26" s="4">
-        <f>CJ26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>2978788.2615342857</v>
       </c>
       <c r="CL26" s="4">
-        <f>CK26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>2949000.378918943</v>
       </c>
       <c r="CM26" s="4">
-        <f>CL26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>2919510.3751297537</v>
       </c>
       <c r="CN26" s="4">
-        <f>CM26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>2890315.2713784561</v>
       </c>
       <c r="CO26" s="4">
-        <f>CN26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>2861412.1186646717</v>
       </c>
       <c r="CP26" s="4">
-        <f>CO26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>2832797.997478025</v>
       </c>
       <c r="CQ26" s="4">
-        <f>CP26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>2804470.0175032448</v>
       </c>
       <c r="CR26" s="4">
-        <f>CQ26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>2776425.3173282123</v>
       </c>
       <c r="CS26" s="4">
-        <f>CR26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>2748661.0641549299</v>
       </c>
       <c r="CT26" s="4">
-        <f>CS26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>2721174.4535133806</v>
       </c>
       <c r="CU26" s="4">
-        <f>CT26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>2693962.7089782469</v>
       </c>
       <c r="CV26" s="4">
-        <f>CU26*(1+$AM$30)</f>
+        <f t="shared" si="57"/>
         <v>2667023.0818884643</v>
       </c>
       <c r="CW26" s="4">
-        <f>CV26*(1+$AM$30)</f>
+        <f t="shared" ref="CW26:ED26" si="58">CV26*(1+$AM$30)</f>
         <v>2640352.8510695798</v>
       </c>
       <c r="CX26" s="4">
-        <f>CW26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2613949.322558884</v>
       </c>
       <c r="CY26" s="4">
-        <f>CX26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2587809.8293332951</v>
       </c>
       <c r="CZ26" s="4">
-        <f>CY26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2561931.7310399623</v>
       </c>
       <c r="DA26" s="4">
-        <f>CZ26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2536312.4137295624</v>
       </c>
       <c r="DB26" s="4">
-        <f>DA26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2510949.2895922665</v>
       </c>
       <c r="DC26" s="4">
-        <f>DB26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2485839.7966963439</v>
       </c>
       <c r="DD26" s="4">
-        <f>DC26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2460981.3987293807</v>
       </c>
       <c r="DE26" s="4">
-        <f>DD26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2436371.5847420869</v>
       </c>
       <c r="DF26" s="4">
-        <f>DE26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2412007.868894666</v>
       </c>
       <c r="DG26" s="4">
-        <f>DF26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2387887.7902057194</v>
       </c>
       <c r="DH26" s="4">
-        <f>DG26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2364008.9123036624</v>
       </c>
       <c r="DI26" s="4">
-        <f>DH26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2340368.8231806257</v>
       </c>
       <c r="DJ26" s="4">
-        <f>DI26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2316965.1349488194</v>
       </c>
       <c r="DK26" s="4">
-        <f>DJ26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2293795.4835993312</v>
       </c>
       <c r="DL26" s="4">
-        <f>DK26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2270857.528763338</v>
       </c>
       <c r="DM26" s="4">
-        <f>DL26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2248148.9534757044</v>
       </c>
       <c r="DN26" s="4">
-        <f>DM26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2225667.4639409473</v>
       </c>
       <c r="DO26" s="4">
-        <f>DN26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2203410.7893015379</v>
       </c>
       <c r="DP26" s="4">
-        <f>DO26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2181376.6814085227</v>
       </c>
       <c r="DQ26" s="4">
-        <f>DP26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2159562.9145944375</v>
       </c>
       <c r="DR26" s="4">
-        <f>DQ26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2137967.285448493</v>
       </c>
       <c r="DS26" s="4">
-        <f>DR26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2116587.612594008</v>
       </c>
       <c r="DT26" s="4">
-        <f>DS26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2095421.7364680679</v>
       </c>
       <c r="DU26" s="4">
-        <f>DT26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2074467.5191033871</v>
       </c>
       <c r="DV26" s="4">
-        <f>DU26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2053722.8439123533</v>
       </c>
       <c r="DW26" s="4">
-        <f>DV26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2033185.6154732297</v>
       </c>
       <c r="DX26" s="4">
-        <f>DW26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>2012853.7593184973</v>
       </c>
       <c r="DY26" s="4">
-        <f>DX26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>1992725.2217253123</v>
       </c>
       <c r="DZ26" s="4">
-        <f>DY26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>1972797.9695080591</v>
       </c>
       <c r="EA26" s="4">
-        <f>DZ26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>1953069.9898129785</v>
       </c>
       <c r="EB26" s="4">
-        <f>EA26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>1933539.2899148487</v>
       </c>
       <c r="EC26" s="4">
-        <f>EB26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>1914203.8970157003</v>
       </c>
       <c r="ED26" s="4">
-        <f>EC26*(1+$AM$30)</f>
+        <f t="shared" si="58"/>
         <v>1895061.8580455433</v>
       </c>
     </row>
@@ -3285,67 +3285,67 @@
         <v>45</v>
       </c>
       <c r="C27" s="5">
-        <f>C26/C28</f>
+        <f t="shared" ref="C27:L27" si="59">C26/C28</f>
         <v>-0.51214850330439288</v>
       </c>
       <c r="D27" s="5">
-        <f>D26/D28</f>
+        <f t="shared" si="59"/>
         <v>-0.49818913480885313</v>
       </c>
       <c r="E27" s="5">
-        <f>E26/E28</f>
+        <f t="shared" si="59"/>
         <v>-0.59809462813225522</v>
       </c>
       <c r="F27" s="5">
-        <f>F26/F28</f>
+        <f t="shared" si="59"/>
         <v>-0.8573830450130282</v>
       </c>
       <c r="G27" s="5">
-        <f>G26/G28</f>
+        <f t="shared" si="59"/>
         <v>-1.2241736603491944</v>
       </c>
       <c r="H27" s="5">
-        <f>H26/H28</f>
+        <f t="shared" si="59"/>
         <v>-1.663072563521695</v>
       </c>
       <c r="I27" s="5">
-        <f>I26/I28</f>
+        <f t="shared" si="59"/>
         <v>-1.7817620885850272</v>
       </c>
       <c r="J27" s="5">
-        <f>J26/J28</f>
+        <f t="shared" si="59"/>
         <v>-2.4439130434782608</v>
       </c>
       <c r="K27" s="5">
-        <f>K26/K28</f>
+        <f t="shared" si="59"/>
         <v>-2.1274910307817541</v>
       </c>
       <c r="L27" s="5">
-        <f>L26/L28</f>
+        <f t="shared" si="59"/>
         <v>-2.094454326596801</v>
       </c>
       <c r="M27" s="5">
-        <f t="shared" ref="M27:R27" si="48">M26/M28</f>
+        <f t="shared" ref="M27:R27" si="60">M26/M28</f>
         <v>-1.0406877023618435</v>
       </c>
       <c r="N27" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>-0.70004369508488862</v>
       </c>
       <c r="O27" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>-0.34003024938612525</v>
       </c>
       <c r="P27" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>-8.6800321912172976E-2</v>
       </c>
       <c r="Q27" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0.22527564736966948</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0.56512287628972591</v>
       </c>
       <c r="T27" s="5">
@@ -3364,55 +3364,55 @@
         <v>0.36356795236109724</v>
       </c>
       <c r="X27" s="5">
-        <f t="shared" ref="X27:AJ27" si="49">X26/X28</f>
+        <f t="shared" ref="X27:AJ27" si="61">X26/X28</f>
         <v>6.5044460605396379</v>
       </c>
       <c r="Y27" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>14.096058064585712</v>
       </c>
       <c r="Z27" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>15.464827347803061</v>
       </c>
       <c r="AA27" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>17.815686205749536</v>
       </c>
       <c r="AB27" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>19.023727820842506</v>
       </c>
       <c r="AC27" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>20.246924918742394</v>
       </c>
       <c r="AD27" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>23.237535417622723</v>
       </c>
       <c r="AE27" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>24.955127052904491</v>
       </c>
       <c r="AF27" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>26.538992616027912</v>
       </c>
       <c r="AG27" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>29.929859877056344</v>
       </c>
       <c r="AH27" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>31.794163867648262</v>
       </c>
       <c r="AI27" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>33.933387606550703</v>
       </c>
       <c r="AJ27" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>36.249249829581181</v>
       </c>
     </row>
@@ -3455,23 +3455,23 @@
         <v>139983</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" ref="N28:R28" si="50">M28</f>
+        <f t="shared" ref="N28:R28" si="62">M28</f>
         <v>139983</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>139983</v>
       </c>
       <c r="P28" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>139983</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>139983</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>139983</v>
       </c>
       <c r="T28" s="2">
@@ -3494,51 +3494,51 @@
         <v>139983</v>
       </c>
       <c r="Y28" s="2">
-        <f t="shared" ref="Y28:AJ28" si="51">X28</f>
+        <f t="shared" ref="Y28:AJ28" si="63">X28</f>
         <v>139983</v>
       </c>
       <c r="Z28" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>139983</v>
       </c>
       <c r="AA28" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>139983</v>
       </c>
       <c r="AB28" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>139983</v>
       </c>
       <c r="AC28" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>139983</v>
       </c>
       <c r="AD28" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>139983</v>
       </c>
       <c r="AE28" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>139983</v>
       </c>
       <c r="AF28" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>139983</v>
       </c>
       <c r="AG28" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>139983</v>
       </c>
       <c r="AH28" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>139983</v>
       </c>
       <c r="AI28" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>139983</v>
       </c>
       <c r="AJ28" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>139983</v>
       </c>
     </row>
@@ -3555,27 +3555,27 @@
         <v>55</v>
       </c>
       <c r="G30" s="2">
-        <f>G12*1000/G6</f>
+        <f t="shared" ref="G30:L30" si="64">G12*1000/G6</f>
         <v>80046.594982078852</v>
       </c>
       <c r="H30" s="2">
-        <f>H12*1000/H6</f>
+        <f t="shared" si="64"/>
         <v>68563.2857031311</v>
       </c>
       <c r="I30" s="2">
-        <f>I12*1000/I6</f>
+        <f t="shared" si="64"/>
         <v>65125.276907799249</v>
       </c>
       <c r="J30" s="2">
-        <f>J12*1000/J6</f>
+        <f t="shared" si="64"/>
         <v>79575.906532734909</v>
       </c>
       <c r="K30" s="2">
-        <f>K12*1000/K6</f>
+        <f t="shared" si="64"/>
         <v>66154.996776273372</v>
       </c>
       <c r="L30" s="2">
-        <f>L12*1000/L6</f>
+        <f t="shared" si="64"/>
         <v>64423.657672390298</v>
       </c>
       <c r="M30" s="2">
@@ -3583,23 +3583,23 @@
         <v>64423.657672390298</v>
       </c>
       <c r="N30" s="2">
-        <f t="shared" ref="N30:R30" si="52">M30</f>
+        <f t="shared" ref="N30:R30" si="65">M30</f>
         <v>64423.657672390298</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v>64423.657672390298</v>
       </c>
       <c r="P30" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v>64423.657672390298</v>
       </c>
       <c r="Q30" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v>64423.657672390298</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="65"/>
         <v>64423.657672390298</v>
       </c>
       <c r="T30" s="2">
@@ -3615,59 +3615,59 @@
         <v>61202.474788770778</v>
       </c>
       <c r="W30" s="2">
-        <f t="shared" ref="W30:AJ30" si="53">V30*0.95</f>
+        <f t="shared" ref="W30:AJ30" si="66">V30*0.95</f>
         <v>58142.351049332239</v>
       </c>
       <c r="X30" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v>55235.233496865621</v>
       </c>
       <c r="Y30" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v>52473.471822022337</v>
       </c>
       <c r="Z30" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v>49849.798230921217</v>
       </c>
       <c r="AA30" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v>47357.308319375152</v>
       </c>
       <c r="AB30" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v>44989.442903406394</v>
       </c>
       <c r="AC30" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v>42739.970758236072</v>
       </c>
       <c r="AD30" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v>40602.972220324264</v>
       </c>
       <c r="AE30" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v>38572.823609308049</v>
       </c>
       <c r="AF30" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v>36644.182428842643</v>
       </c>
       <c r="AG30" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v>34811.973307400513</v>
       </c>
       <c r="AH30" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v>33071.374642030489</v>
       </c>
       <c r="AI30" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v>31417.805909928964</v>
       </c>
       <c r="AJ30" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="66"/>
         <v>29846.915614432513</v>
       </c>
       <c r="AL30" s="2" t="s">
@@ -3709,51 +3709,51 @@
         <v>50</v>
       </c>
       <c r="G34" s="8">
-        <f>G14/C14-1</f>
+        <f t="shared" ref="G34:L34" si="67">G14/C14-1</f>
         <v>0.51461142033899399</v>
       </c>
       <c r="H34" s="8">
-        <f>H14/D14-1</f>
+        <f t="shared" si="67"/>
         <v>0.24127801556900708</v>
       </c>
       <c r="I34" s="8">
-        <f>I14/E14-1</f>
+        <f t="shared" si="67"/>
         <v>9.9770604505261762E-2</v>
       </c>
       <c r="J34" s="8">
-        <f>J14/F14-1</f>
+        <f t="shared" si="67"/>
         <v>0.26939323333970977</v>
       </c>
       <c r="K34" s="8">
-        <f>K14/G14-1</f>
+        <f t="shared" si="67"/>
         <v>0.22041962803762183</v>
       </c>
       <c r="L34" s="8">
-        <f>L14/H14-1</f>
+        <f t="shared" si="67"/>
         <v>0.32989415440806891</v>
       </c>
       <c r="M34" s="8">
-        <f t="shared" ref="M34:R34" si="54">M14/I14-1</f>
+        <f t="shared" ref="M34:R34" si="68">M14/I14-1</f>
         <v>0.82460600890824898</v>
       </c>
       <c r="N34" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="68"/>
         <v>0.57782204031551965</v>
       </c>
       <c r="O34" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="68"/>
         <v>0.86013600521816969</v>
       </c>
       <c r="P34" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="68"/>
         <v>0.80559212005088354</v>
       </c>
       <c r="Q34" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="68"/>
         <v>0.45381147633622709</v>
       </c>
       <c r="R34" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="68"/>
         <v>0.40504318022934838</v>
       </c>
       <c r="AL34" s="2" t="s">
@@ -3769,23 +3769,23 @@
         <v>57</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" ref="G35:L35" si="55">G25/G24</f>
+        <f t="shared" ref="G35:K35" si="69">G25/G24</f>
         <v>-2.011366869347166E-2</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>-1.5260738413499996E-2</v>
       </c>
       <c r="I35" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>-7.8220226768504954E-3</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>-1.6007661352977178E-2</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>-1.3813613197280377E-2</v>
       </c>
       <c r="L35" s="8">
@@ -3793,95 +3793,95 @@
         <v>-1.2602792715316417E-2</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" ref="M35:AJ35" si="56">M25/M24</f>
+        <f t="shared" ref="M35:AJ35" si="70">M25/M24</f>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="O35" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="P35" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="Q35" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="R35" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="T35" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>-3.1556378716807922E-2</v>
       </c>
       <c r="U35" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>-1.4891094807817053E-2</v>
       </c>
       <c r="V35" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>-1.6679177317584209E-2</v>
       </c>
       <c r="W35" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>-2.5000000000000005E-2</v>
       </c>
       <c r="X35" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>-0.05</v>
       </c>
       <c r="Y35" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>0.05</v>
       </c>
       <c r="Z35" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>0.05</v>
       </c>
       <c r="AA35" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>0.05</v>
       </c>
       <c r="AB35" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>0.05</v>
       </c>
       <c r="AC35" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>0.05</v>
       </c>
       <c r="AD35" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>0.05</v>
       </c>
       <c r="AE35" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>0.05</v>
       </c>
       <c r="AF35" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>0.05</v>
       </c>
       <c r="AG35" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>0.05</v>
       </c>
       <c r="AH35" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>0.05</v>
       </c>
       <c r="AI35" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>0.05</v>
       </c>
       <c r="AJ35" s="8">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>0.05</v>
       </c>
       <c r="AL35" s="7" t="s">
@@ -3903,67 +3903,67 @@
         <v>56</v>
       </c>
       <c r="C37" s="7">
-        <f>C18/C14</f>
+        <f t="shared" ref="C37:N37" si="71">C18/C14</f>
         <v>0.24998791379149196</v>
       </c>
       <c r="D37" s="7">
-        <f>D18/D14</f>
+        <f t="shared" si="71"/>
         <v>0.276850948009291</v>
       </c>
       <c r="E37" s="7">
-        <f>E18/E14</f>
+        <f t="shared" si="71"/>
         <v>0.29566778272936028</v>
       </c>
       <c r="F37" s="7">
-        <f>F18/F14</f>
+        <f t="shared" si="71"/>
         <v>0.27355249142590737</v>
       </c>
       <c r="G37" s="7">
-        <f>G18/G14</f>
+        <f t="shared" si="71"/>
         <v>0.27670872877388603</v>
       </c>
       <c r="H37" s="7">
-        <f>H18/H14</f>
+        <f t="shared" si="71"/>
         <v>0.22342969875682739</v>
       </c>
       <c r="I37" s="7">
-        <f>I18/I14</f>
+        <f t="shared" si="71"/>
         <v>0.24711647980495074</v>
       </c>
       <c r="J37" s="7">
-        <f>J18/J14</f>
+        <f t="shared" si="71"/>
         <v>0.17998005564984243</v>
       </c>
       <c r="K37" s="7">
-        <f>K18/K14</f>
+        <f t="shared" si="71"/>
         <v>0.22010238455583375</v>
       </c>
       <c r="L37" s="7">
-        <f>L18/L14</f>
+        <f t="shared" si="71"/>
         <v>0.21635615901204472</v>
       </c>
       <c r="M37" s="7">
-        <f>M18/M14</f>
+        <f t="shared" si="71"/>
         <v>0.25</v>
       </c>
       <c r="N37" s="7">
-        <f>N18/N14</f>
+        <f t="shared" si="71"/>
         <v>0.25</v>
       </c>
       <c r="O37" s="7">
-        <f t="shared" ref="O37:R37" si="57">O18/O14</f>
+        <f t="shared" ref="O37:R37" si="72">O18/O14</f>
         <v>0.25</v>
       </c>
       <c r="P37" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="72"/>
         <v>0.25</v>
       </c>
       <c r="Q37" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="72"/>
         <v>0.25</v>
       </c>
       <c r="R37" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="72"/>
         <v>0.25</v>
       </c>
     </row>
@@ -3995,23 +3995,23 @@
         <v>-87205.586639717949</v>
       </c>
       <c r="N41" s="2">
-        <f t="shared" ref="N41:R41" si="58">M41+N26</f>
+        <f t="shared" ref="N41:R41" si="73">M41+N26</f>
         <v>-185199.80320878592</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>-232798.25760860389</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>-244948.8270708356</v>
       </c>
       <c r="Q41" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>-213414.06612508715</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>-134306.47053342243</v>
       </c>
       <c r="W41" s="2">
@@ -4019,55 +4019,55 @@
         <v>-83413.137858058952</v>
       </c>
       <c r="X41" s="2">
-        <f t="shared" ref="X41:AJ41" si="59">S41+X26</f>
+        <f t="shared" ref="X41:AJ41" si="74">S41+X26</f>
         <v>910511.87289252016</v>
       </c>
       <c r="Y41" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>1973208.4960549017</v>
       </c>
       <c r="Z41" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>2164812.9266275158</v>
       </c>
       <c r="AA41" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>2493893.2021394372</v>
       </c>
       <c r="AB41" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>2579585.3536869376</v>
       </c>
       <c r="AC41" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>3744737.1637928365</v>
       </c>
       <c r="AD41" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>5226068.4164199829</v>
       </c>
       <c r="AE41" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>5658106.4768742453</v>
       </c>
       <c r="AF41" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>6208901.0055088717</v>
       </c>
       <c r="AG41" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>6769256.9288569158</v>
       </c>
       <c r="AH41" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>8195379.6044778433</v>
       </c>
       <c r="AI41" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>9976165.8137477711</v>
       </c>
       <c r="AJ41" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>10732385.215768509</v>
       </c>
     </row>

--- a/investing spreadsheets/TSLA.xlsx
+++ b/investing spreadsheets/TSLA.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr showInkAnnotation="0"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/billymbp/stock-exchange-berkeley/investing spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOOK\Desktop\stock-exchange-berkeley\investing spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="20535" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -333,6 +333,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -652,16 +655,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I3:J8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="9:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I3" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,7 +672,7 @@
         <v>200.24</v>
       </c>
     </row>
-    <row r="4" spans="9:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
@@ -677,7 +680,7 @@
         <v>148.69200000000001</v>
       </c>
     </row>
-    <row r="5" spans="9:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I5" s="1" t="s">
         <v>4</v>
       </c>
@@ -686,7 +689,7 @@
         <v>29774.086080000005</v>
       </c>
     </row>
-    <row r="6" spans="9:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I6" s="1" t="s">
         <v>1</v>
       </c>
@@ -695,7 +698,7 @@
         <v>3342.4470000000001</v>
       </c>
     </row>
-    <row r="7" spans="9:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I7" s="1" t="s">
         <v>2</v>
       </c>
@@ -703,7 +706,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="8" spans="9:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="9:10" x14ac:dyDescent="0.2">
       <c r="I8" s="1" t="s">
         <v>5</v>
       </c>
@@ -721,25 +724,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:ED61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Y9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB6" sqref="AB6"/>
+      <selection pane="bottomRight" activeCell="AH41" sqref="AH41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="13.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="10" width="10.875" style="1"/>
+    <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" style="1"/>
+    <col min="13" max="13" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,10 +859,10 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
@@ -969,7 +972,7 @@
         <v>916321.226917819</v>
       </c>
     </row>
-    <row r="7" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>52</v>
       </c>
@@ -996,7 +999,7 @@
       </c>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>54</v>
       </c>
@@ -1029,7 +1032,7 @@
         <v>0.97280127059757793</v>
       </c>
     </row>
-    <row r="9" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>53</v>
       </c>
@@ -1078,9 +1081,9 @@
         <v>8.067769261799107E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
@@ -1206,7 +1209,7 @@
         <v>27349362.335529413</v>
       </c>
     </row>
-    <row r="13" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>49</v>
       </c>
@@ -1332,7 +1335,7 @@
         <v>1408834.8583659597</v>
       </c>
     </row>
-    <row r="14" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
@@ -1468,7 +1471,7 @@
         <v>28758197.193895373</v>
       </c>
     </row>
-    <row r="15" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
@@ -1514,7 +1517,7 @@
         <v>1688598</v>
       </c>
     </row>
-    <row r="16" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>201223</v>
       </c>
     </row>
-    <row r="17" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
@@ -1696,7 +1699,7 @@
         <v>20705901.979604669</v>
       </c>
     </row>
-    <row r="18" spans="2:134" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:134" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>37</v>
       </c>
@@ -1832,7 +1835,7 @@
         <v>8052295.2142907055</v>
       </c>
     </row>
-    <row r="19" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1958,7 +1961,7 @@
         <v>1037231.8113532946</v>
       </c>
     </row>
-    <row r="20" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
@@ -2084,7 +2087,7 @@
         <v>1973002.3364085145</v>
       </c>
     </row>
-    <row r="21" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
@@ -2221,7 +2224,7 @@
         <v>3010234.1477618092</v>
       </c>
     </row>
-    <row r="22" spans="2:134" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:134" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>46</v>
       </c>
@@ -2357,7 +2360,7 @@
         <v>5042061.0665288959</v>
       </c>
     </row>
-    <row r="23" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
@@ -2447,50 +2450,50 @@
       </c>
       <c r="Z23" s="2">
         <f>Y41*$AM$29</f>
-        <v>59196.254881647052</v>
+        <v>82482.416952419982</v>
       </c>
       <c r="AA23" s="2">
         <f t="shared" ref="AA23:AJ23" si="47">Z41*$AM$29</f>
-        <v>64944.387798825475</v>
+        <v>148090.4603702625</v>
       </c>
       <c r="AB23" s="2">
         <f t="shared" si="47"/>
-        <v>74816.796064183116</v>
+        <v>225276.91950273159</v>
       </c>
       <c r="AC23" s="2">
         <f t="shared" si="47"/>
-        <v>77387.560610608125</v>
+        <v>309454.98776708008</v>
       </c>
       <c r="AD23" s="2">
         <f t="shared" si="47"/>
-        <v>112342.11491378509</v>
+        <v>401095.66816804896</v>
       </c>
       <c r="AE23" s="2">
         <f t="shared" si="47"/>
-        <v>156782.05249259947</v>
+        <v>506910.94204674795</v>
       </c>
       <c r="AF23" s="2">
         <f t="shared" si="47"/>
-        <v>169743.19430622735</v>
+        <v>621688.42190644308</v>
       </c>
       <c r="AG23" s="2">
         <f t="shared" si="47"/>
-        <v>186267.03016526616</v>
+        <v>746019.09499413217</v>
       </c>
       <c r="AH23" s="2">
         <f t="shared" si="47"/>
-        <v>203077.70786570746</v>
+        <v>887662.17609685427</v>
       </c>
       <c r="AI23" s="2">
         <f t="shared" si="47"/>
-        <v>245861.38813433528</v>
+        <v>1040692.1066619921</v>
       </c>
       <c r="AJ23" s="2">
         <f t="shared" si="47"/>
-        <v>299284.9744124331</v>
-      </c>
-    </row>
-    <row r="24" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>1205847.7040598639</v>
+      </c>
+    </row>
+    <row r="24" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
@@ -2583,50 +2586,50 @@
       </c>
       <c r="Z24" s="2">
         <f t="shared" si="50"/>
-        <v>2278750.4490815955</v>
+        <v>2302036.6111523686</v>
       </c>
       <c r="AA24" s="2">
         <f t="shared" si="50"/>
-        <v>2625150.7390941447</v>
+        <v>2708296.811665582</v>
       </c>
       <c r="AB24" s="2">
         <f t="shared" si="50"/>
-        <v>2803156.3068894697</v>
+        <v>2953616.430328018</v>
       </c>
       <c r="AC24" s="2">
         <f t="shared" si="50"/>
-        <v>2983395.0430529648</v>
+        <v>3215462.4702094365</v>
       </c>
       <c r="AD24" s="2">
         <f t="shared" si="50"/>
-        <v>3424063.0740685072</v>
+        <v>3712816.6273227711</v>
       </c>
       <c r="AE24" s="2">
         <f t="shared" si="50"/>
-        <v>3677151.1055228733</v>
+        <v>4027279.9950770219</v>
       </c>
       <c r="AF24" s="2">
         <f t="shared" si="50"/>
-        <v>3910534.5298625631</v>
+        <v>4362479.7574627791</v>
       </c>
       <c r="AG24" s="2">
         <f t="shared" si="50"/>
-        <v>4410180.6054420825</v>
+        <v>4969932.6702709487</v>
       </c>
       <c r="AH24" s="2">
         <f t="shared" si="50"/>
-        <v>4684886.779668428</v>
+        <v>5369471.2478995752</v>
       </c>
       <c r="AI24" s="2">
         <f t="shared" si="50"/>
-        <v>5000102.5235029338</v>
+        <v>5794933.2420305908</v>
       </c>
       <c r="AJ24" s="2">
         <f t="shared" si="50"/>
-        <v>5341346.0409413287</v>
-      </c>
-    </row>
-    <row r="25" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>6247908.7705887593</v>
+      </c>
+    </row>
+    <row r="25" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
@@ -2709,50 +2712,50 @@
       </c>
       <c r="Z25" s="2">
         <f t="shared" ref="Z25:AJ25" si="52">Z24*0.05</f>
-        <v>113937.52245407978</v>
+        <v>115101.83055761844</v>
       </c>
       <c r="AA25" s="2">
         <f t="shared" si="52"/>
-        <v>131257.53695470723</v>
+        <v>135414.84058327912</v>
       </c>
       <c r="AB25" s="2">
         <f t="shared" si="52"/>
-        <v>140157.81534447349</v>
+        <v>147680.8215164009</v>
       </c>
       <c r="AC25" s="2">
         <f t="shared" si="52"/>
-        <v>149169.75215264826</v>
+        <v>160773.12351047184</v>
       </c>
       <c r="AD25" s="2">
         <f t="shared" si="52"/>
-        <v>171203.15370342537</v>
+        <v>185640.83136613856</v>
       </c>
       <c r="AE25" s="2">
         <f t="shared" si="52"/>
-        <v>183857.55527614368</v>
+        <v>201363.99975385109</v>
       </c>
       <c r="AF25" s="2">
         <f t="shared" si="52"/>
-        <v>195526.72649312817</v>
+        <v>218123.98787313898</v>
       </c>
       <c r="AG25" s="2">
         <f t="shared" si="52"/>
-        <v>220509.03027210414</v>
+        <v>248496.63351354745</v>
       </c>
       <c r="AH25" s="2">
         <f t="shared" si="52"/>
-        <v>234244.33898342142</v>
+        <v>268473.56239497877</v>
       </c>
       <c r="AI25" s="2">
         <f t="shared" si="52"/>
-        <v>250005.1261751467</v>
+        <v>289746.66210152954</v>
       </c>
       <c r="AJ25" s="2">
         <f t="shared" si="52"/>
-        <v>267067.30204706645</v>
-      </c>
-    </row>
-    <row r="26" spans="2:134" s="4" customFormat="1" x14ac:dyDescent="0.15">
+        <v>312395.43852943799</v>
+      </c>
+    </row>
+    <row r="26" spans="2:134" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>44</v>
       </c>
@@ -2793,7 +2796,7 @@
         <v>-282267</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" si="53"/>
+        <f>L24-L25</f>
         <v>-293188</v>
       </c>
       <c r="M26" s="4">
@@ -2845,442 +2848,442 @@
       </c>
       <c r="Z26" s="4">
         <f t="shared" si="55"/>
-        <v>2164812.9266275158</v>
+        <v>2186934.7805947503</v>
       </c>
       <c r="AA26" s="4">
         <f t="shared" si="55"/>
-        <v>2493893.2021394372</v>
+        <v>2572881.9710823027</v>
       </c>
       <c r="AB26" s="4">
         <f t="shared" si="55"/>
-        <v>2662998.4915449964</v>
+        <v>2805935.6088116169</v>
       </c>
       <c r="AC26" s="4">
         <f t="shared" si="55"/>
-        <v>2834225.2909003166</v>
+        <v>3054689.3466989645</v>
       </c>
       <c r="AD26" s="4">
         <f t="shared" si="55"/>
-        <v>3252859.9203650816</v>
+        <v>3527175.7959566326</v>
       </c>
       <c r="AE26" s="4">
         <f t="shared" si="55"/>
-        <v>3493293.5502467295</v>
+        <v>3825915.9953231709</v>
       </c>
       <c r="AF26" s="4">
         <f t="shared" si="55"/>
-        <v>3715007.803369435</v>
+        <v>4144355.7695896402</v>
       </c>
       <c r="AG26" s="4">
         <f t="shared" si="55"/>
-        <v>4189671.5751699782</v>
+        <v>4721436.0367574012</v>
       </c>
       <c r="AH26" s="4">
         <f t="shared" si="55"/>
-        <v>4450642.4406850068</v>
+        <v>5100997.6855045967</v>
       </c>
       <c r="AI26" s="4">
         <f t="shared" si="55"/>
-        <v>4750097.3973277872</v>
+        <v>5505186.5799290612</v>
       </c>
       <c r="AJ26" s="4">
         <f t="shared" si="55"/>
-        <v>5074278.7388942624</v>
+        <v>5935513.332059321</v>
       </c>
       <c r="AK26" s="4">
         <f t="shared" ref="AK26:BP26" si="56">AJ26*(1+$AM$30)</f>
-        <v>5023535.9515053201</v>
+        <v>5876158.1987387277</v>
       </c>
       <c r="AL26" s="4">
         <f t="shared" si="56"/>
-        <v>4973300.5919902669</v>
+        <v>5817396.6167513402</v>
       </c>
       <c r="AM26" s="4">
         <f t="shared" si="56"/>
-        <v>4923567.5860703643</v>
+        <v>5759222.6505838269</v>
       </c>
       <c r="AN26" s="4">
         <f t="shared" si="56"/>
-        <v>4874331.9102096604</v>
+        <v>5701630.4240779886</v>
       </c>
       <c r="AO26" s="4">
         <f t="shared" si="56"/>
-        <v>4825588.591107564</v>
+        <v>5644614.1198372087</v>
       </c>
       <c r="AP26" s="4">
         <f t="shared" si="56"/>
-        <v>4777332.7051964886</v>
+        <v>5588167.9786388362</v>
       </c>
       <c r="AQ26" s="4">
         <f t="shared" si="56"/>
-        <v>4729559.3781445241</v>
+        <v>5532286.2988524474</v>
       </c>
       <c r="AR26" s="4">
         <f t="shared" si="56"/>
-        <v>4682263.7843630789</v>
+        <v>5476963.4358639233</v>
       </c>
       <c r="AS26" s="4">
         <f t="shared" si="56"/>
-        <v>4635441.1465194477</v>
+        <v>5422193.8015052844</v>
       </c>
       <c r="AT26" s="4">
         <f t="shared" si="56"/>
-        <v>4589086.7350542536</v>
+        <v>5367971.8634902313</v>
       </c>
       <c r="AU26" s="4">
         <f t="shared" si="56"/>
-        <v>4543195.8677037107</v>
+        <v>5314292.1448553288</v>
       </c>
       <c r="AV26" s="4">
         <f t="shared" si="56"/>
-        <v>4497763.909026674</v>
+        <v>5261149.2234067759</v>
       </c>
       <c r="AW26" s="4">
         <f t="shared" si="56"/>
-        <v>4452786.269936407</v>
+        <v>5208537.7311727079</v>
       </c>
       <c r="AX26" s="4">
         <f t="shared" si="56"/>
-        <v>4408258.4072370427</v>
+        <v>5156452.3538609808</v>
       </c>
       <c r="AY26" s="4">
         <f t="shared" si="56"/>
-        <v>4364175.8231646726</v>
+        <v>5104887.8303223709</v>
       </c>
       <c r="AZ26" s="4">
         <f t="shared" si="56"/>
-        <v>4320534.0649330262</v>
+        <v>5053838.9520191476</v>
       </c>
       <c r="BA26" s="4">
         <f t="shared" si="56"/>
-        <v>4277328.7242836962</v>
+        <v>5003300.562498956</v>
       </c>
       <c r="BB26" s="4">
         <f t="shared" si="56"/>
-        <v>4234555.4370408589</v>
+        <v>4953267.556873966</v>
       </c>
       <c r="BC26" s="4">
         <f t="shared" si="56"/>
-        <v>4192209.8826704505</v>
+        <v>4903734.8813052261</v>
       </c>
       <c r="BD26" s="4">
         <f t="shared" si="56"/>
-        <v>4150287.7838437459</v>
+        <v>4854697.5324921738</v>
       </c>
       <c r="BE26" s="4">
         <f t="shared" si="56"/>
-        <v>4108784.9060053085</v>
+        <v>4806150.5571672516</v>
       </c>
       <c r="BF26" s="4">
         <f t="shared" si="56"/>
-        <v>4067697.0569452555</v>
+        <v>4758089.0515955789</v>
       </c>
       <c r="BG26" s="4">
         <f t="shared" si="56"/>
-        <v>4027020.0863758028</v>
+        <v>4710508.1610796228</v>
       </c>
       <c r="BH26" s="4">
         <f t="shared" si="56"/>
-        <v>3986749.8855120447</v>
+        <v>4663403.0794688268</v>
       </c>
       <c r="BI26" s="4">
         <f t="shared" si="56"/>
-        <v>3946882.3866569242</v>
+        <v>4616769.0486741383</v>
       </c>
       <c r="BJ26" s="4">
         <f t="shared" si="56"/>
-        <v>3907413.5627903547</v>
+        <v>4570601.358187397</v>
       </c>
       <c r="BK26" s="4">
         <f t="shared" si="56"/>
-        <v>3868339.4271624512</v>
+        <v>4524895.3446055232</v>
       </c>
       <c r="BL26" s="4">
         <f t="shared" si="56"/>
-        <v>3829656.0328908265</v>
+        <v>4479646.3911594683</v>
       </c>
       <c r="BM26" s="4">
         <f t="shared" si="56"/>
-        <v>3791359.4725619182</v>
+        <v>4434849.9272478735</v>
       </c>
       <c r="BN26" s="4">
         <f t="shared" si="56"/>
-        <v>3753445.8778362991</v>
+        <v>4390501.4279753948</v>
       </c>
       <c r="BO26" s="4">
         <f t="shared" si="56"/>
-        <v>3715911.4190579359</v>
+        <v>4346596.4136956409</v>
       </c>
       <c r="BP26" s="4">
         <f t="shared" si="56"/>
-        <v>3678752.3048673565</v>
+        <v>4303130.4495586846</v>
       </c>
       <c r="BQ26" s="4">
         <f t="shared" ref="BQ26:CV26" si="57">BP26*(1+$AM$30)</f>
-        <v>3641964.7818186828</v>
+        <v>4260099.1450630976</v>
       </c>
       <c r="BR26" s="4">
         <f t="shared" si="57"/>
-        <v>3605545.134000496</v>
+        <v>4217498.1536124665</v>
       </c>
       <c r="BS26" s="4">
         <f t="shared" si="57"/>
-        <v>3569489.6826604912</v>
+        <v>4175323.1720763417</v>
       </c>
       <c r="BT26" s="4">
         <f t="shared" si="57"/>
-        <v>3533794.7858338864</v>
+        <v>4133569.9403555784</v>
       </c>
       <c r="BU26" s="4">
         <f t="shared" si="57"/>
-        <v>3498456.8379755476</v>
+        <v>4092234.2409520228</v>
       </c>
       <c r="BV26" s="4">
         <f t="shared" si="57"/>
-        <v>3463472.2695957921</v>
+        <v>4051311.8985425024</v>
       </c>
       <c r="BW26" s="4">
         <f t="shared" si="57"/>
-        <v>3428837.5468998342</v>
+        <v>4010798.7795570772</v>
       </c>
       <c r="BX26" s="4">
         <f t="shared" si="57"/>
-        <v>3394549.171430836</v>
+        <v>3970690.7917615063</v>
       </c>
       <c r="BY26" s="4">
         <f t="shared" si="57"/>
-        <v>3360603.6797165275</v>
+        <v>3930983.8838438913</v>
       </c>
       <c r="BZ26" s="4">
         <f t="shared" si="57"/>
-        <v>3326997.6429193621</v>
+        <v>3891674.0450054524</v>
       </c>
       <c r="CA26" s="4">
         <f t="shared" si="57"/>
-        <v>3293727.6664901683</v>
+        <v>3852757.3045553979</v>
       </c>
       <c r="CB26" s="4">
         <f t="shared" si="57"/>
-        <v>3260790.3898252668</v>
+        <v>3814229.7315098438</v>
       </c>
       <c r="CC26" s="4">
         <f t="shared" si="57"/>
-        <v>3228182.4859270141</v>
+        <v>3776087.4341947455</v>
       </c>
       <c r="CD26" s="4">
         <f t="shared" si="57"/>
-        <v>3195900.6610677438</v>
+        <v>3738326.559852798</v>
       </c>
       <c r="CE26" s="4">
         <f t="shared" si="57"/>
-        <v>3163941.6544570662</v>
+        <v>3700943.2942542699</v>
       </c>
       <c r="CF26" s="4">
         <f t="shared" si="57"/>
-        <v>3132302.2379124956</v>
+        <v>3663933.8613117272</v>
       </c>
       <c r="CG26" s="4">
         <f t="shared" si="57"/>
-        <v>3100979.2155333706</v>
+        <v>3627294.5226986101</v>
       </c>
       <c r="CH26" s="4">
         <f t="shared" si="57"/>
-        <v>3069969.4233780368</v>
+        <v>3591021.5774716241</v>
       </c>
       <c r="CI26" s="4">
         <f t="shared" si="57"/>
-        <v>3039269.7291442566</v>
+        <v>3555111.3616969078</v>
       </c>
       <c r="CJ26" s="4">
         <f t="shared" si="57"/>
-        <v>3008877.0318528139</v>
+        <v>3519560.2480799388</v>
       </c>
       <c r="CK26" s="4">
         <f t="shared" si="57"/>
-        <v>2978788.2615342857</v>
+        <v>3484364.6455991394</v>
       </c>
       <c r="CL26" s="4">
         <f t="shared" si="57"/>
-        <v>2949000.378918943</v>
+        <v>3449520.9991431478</v>
       </c>
       <c r="CM26" s="4">
         <f t="shared" si="57"/>
-        <v>2919510.3751297537</v>
+        <v>3415025.7891517165</v>
       </c>
       <c r="CN26" s="4">
         <f t="shared" si="57"/>
-        <v>2890315.2713784561</v>
+        <v>3380875.5312601994</v>
       </c>
       <c r="CO26" s="4">
         <f t="shared" si="57"/>
-        <v>2861412.1186646717</v>
+        <v>3347066.7759475973</v>
       </c>
       <c r="CP26" s="4">
         <f t="shared" si="57"/>
-        <v>2832797.997478025</v>
+        <v>3313596.1081881211</v>
       </c>
       <c r="CQ26" s="4">
         <f t="shared" si="57"/>
-        <v>2804470.0175032448</v>
+        <v>3280460.14710624</v>
       </c>
       <c r="CR26" s="4">
         <f t="shared" si="57"/>
-        <v>2776425.3173282123</v>
+        <v>3247655.5456351778</v>
       </c>
       <c r="CS26" s="4">
         <f t="shared" si="57"/>
-        <v>2748661.0641549299</v>
+        <v>3215178.9901788258</v>
       </c>
       <c r="CT26" s="4">
         <f t="shared" si="57"/>
-        <v>2721174.4535133806</v>
+        <v>3183027.2002770375</v>
       </c>
       <c r="CU26" s="4">
         <f t="shared" si="57"/>
-        <v>2693962.7089782469</v>
+        <v>3151196.9282742669</v>
       </c>
       <c r="CV26" s="4">
         <f t="shared" si="57"/>
-        <v>2667023.0818884643</v>
+        <v>3119684.9589915243</v>
       </c>
       <c r="CW26" s="4">
         <f t="shared" ref="CW26:ED26" si="58">CV26*(1+$AM$30)</f>
-        <v>2640352.8510695798</v>
+        <v>3088488.1094016088</v>
       </c>
       <c r="CX26" s="4">
         <f t="shared" si="58"/>
-        <v>2613949.322558884</v>
+        <v>3057603.2283075927</v>
       </c>
       <c r="CY26" s="4">
         <f t="shared" si="58"/>
-        <v>2587809.8293332951</v>
+        <v>3027027.1960245166</v>
       </c>
       <c r="CZ26" s="4">
         <f t="shared" si="58"/>
-        <v>2561931.7310399623</v>
+        <v>2996756.9240642716</v>
       </c>
       <c r="DA26" s="4">
         <f t="shared" si="58"/>
-        <v>2536312.4137295624</v>
+        <v>2966789.3548236289</v>
       </c>
       <c r="DB26" s="4">
         <f t="shared" si="58"/>
-        <v>2510949.2895922665</v>
+        <v>2937121.4612753927</v>
       </c>
       <c r="DC26" s="4">
         <f t="shared" si="58"/>
-        <v>2485839.7966963439</v>
+        <v>2907750.2466626386</v>
       </c>
       <c r="DD26" s="4">
         <f t="shared" si="58"/>
-        <v>2460981.3987293807</v>
+        <v>2878672.7441960122</v>
       </c>
       <c r="DE26" s="4">
         <f t="shared" si="58"/>
-        <v>2436371.5847420869</v>
+        <v>2849886.0167540521</v>
       </c>
       <c r="DF26" s="4">
         <f t="shared" si="58"/>
-        <v>2412007.868894666</v>
+        <v>2821387.1565865115</v>
       </c>
       <c r="DG26" s="4">
         <f t="shared" si="58"/>
-        <v>2387887.7902057194</v>
+        <v>2793173.2850206462</v>
       </c>
       <c r="DH26" s="4">
         <f t="shared" si="58"/>
-        <v>2364008.9123036624</v>
+        <v>2765241.5521704396</v>
       </c>
       <c r="DI26" s="4">
         <f t="shared" si="58"/>
-        <v>2340368.8231806257</v>
+        <v>2737589.136648735</v>
       </c>
       <c r="DJ26" s="4">
         <f t="shared" si="58"/>
-        <v>2316965.1349488194</v>
+        <v>2710213.2452822477</v>
       </c>
       <c r="DK26" s="4">
         <f t="shared" si="58"/>
-        <v>2293795.4835993312</v>
+        <v>2683111.1128294254</v>
       </c>
       <c r="DL26" s="4">
         <f t="shared" si="58"/>
-        <v>2270857.528763338</v>
+        <v>2656280.001701131</v>
       </c>
       <c r="DM26" s="4">
         <f t="shared" si="58"/>
-        <v>2248148.9534757044</v>
+        <v>2629717.2016841196</v>
       </c>
       <c r="DN26" s="4">
         <f t="shared" si="58"/>
-        <v>2225667.4639409473</v>
+        <v>2603420.0296672783</v>
       </c>
       <c r="DO26" s="4">
         <f t="shared" si="58"/>
-        <v>2203410.7893015379</v>
+        <v>2577385.8293706053</v>
       </c>
       <c r="DP26" s="4">
         <f t="shared" si="58"/>
-        <v>2181376.6814085227</v>
+        <v>2551611.9710768992</v>
       </c>
       <c r="DQ26" s="4">
         <f t="shared" si="58"/>
-        <v>2159562.9145944375</v>
+        <v>2526095.8513661302</v>
       </c>
       <c r="DR26" s="4">
         <f t="shared" si="58"/>
-        <v>2137967.285448493</v>
+        <v>2500834.8928524689</v>
       </c>
       <c r="DS26" s="4">
         <f t="shared" si="58"/>
-        <v>2116587.612594008</v>
+        <v>2475826.5439239442</v>
       </c>
       <c r="DT26" s="4">
         <f t="shared" si="58"/>
-        <v>2095421.7364680679</v>
+        <v>2451068.2784847049</v>
       </c>
       <c r="DU26" s="4">
         <f t="shared" si="58"/>
-        <v>2074467.5191033871</v>
+        <v>2426557.5956998579</v>
       </c>
       <c r="DV26" s="4">
         <f t="shared" si="58"/>
-        <v>2053722.8439123533</v>
+        <v>2402292.0197428595</v>
       </c>
       <c r="DW26" s="4">
         <f t="shared" si="58"/>
-        <v>2033185.6154732297</v>
+        <v>2378269.0995454309</v>
       </c>
       <c r="DX26" s="4">
         <f t="shared" si="58"/>
-        <v>2012853.7593184973</v>
+        <v>2354486.4085499765</v>
       </c>
       <c r="DY26" s="4">
         <f t="shared" si="58"/>
-        <v>1992725.2217253123</v>
+        <v>2330941.5444644769</v>
       </c>
       <c r="DZ26" s="4">
         <f t="shared" si="58"/>
-        <v>1972797.9695080591</v>
+        <v>2307632.1290198322</v>
       </c>
       <c r="EA26" s="4">
         <f t="shared" si="58"/>
-        <v>1953069.9898129785</v>
+        <v>2284555.807729634</v>
       </c>
       <c r="EB26" s="4">
         <f t="shared" si="58"/>
-        <v>1933539.2899148487</v>
+        <v>2261710.2496523377</v>
       </c>
       <c r="EC26" s="4">
         <f t="shared" si="58"/>
-        <v>1914203.8970157003</v>
+        <v>2239093.1471558143</v>
       </c>
       <c r="ED26" s="4">
         <f t="shared" si="58"/>
-        <v>1895061.8580455433</v>
-      </c>
-    </row>
-    <row r="27" spans="2:134" s="5" customFormat="1" x14ac:dyDescent="0.15">
+        <v>2216702.2156842561</v>
+      </c>
+    </row>
+    <row r="27" spans="2:134" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>45</v>
       </c>
@@ -3373,50 +3376,50 @@
       </c>
       <c r="Z27" s="5">
         <f t="shared" si="61"/>
-        <v>15.464827347803061</v>
+        <v>15.622859780078654</v>
       </c>
       <c r="AA27" s="5">
         <f t="shared" si="61"/>
-        <v>17.815686205749536</v>
+        <v>18.379960217185676</v>
       </c>
       <c r="AB27" s="5">
         <f t="shared" si="61"/>
-        <v>19.023727820842506</v>
+        <v>20.04483122101696</v>
       </c>
       <c r="AC27" s="5">
         <f t="shared" si="61"/>
-        <v>20.246924918742394</v>
+        <v>21.821859416493176</v>
       </c>
       <c r="AD27" s="5">
         <f t="shared" si="61"/>
-        <v>23.237535417622723</v>
+        <v>25.197172484920543</v>
       </c>
       <c r="AE27" s="5">
         <f t="shared" si="61"/>
-        <v>24.955127052904491</v>
+        <v>27.331290194689146</v>
       </c>
       <c r="AF27" s="5">
         <f t="shared" si="61"/>
-        <v>26.538992616027912</v>
+        <v>29.606136242183982</v>
       </c>
       <c r="AG27" s="5">
         <f t="shared" si="61"/>
-        <v>29.929859877056344</v>
+        <v>33.728638740114164</v>
       </c>
       <c r="AH27" s="5">
         <f t="shared" si="61"/>
-        <v>31.794163867648262</v>
+        <v>36.440122625637372</v>
       </c>
       <c r="AI27" s="5">
         <f t="shared" si="61"/>
-        <v>33.933387606550703</v>
+        <v>39.327536771815588</v>
       </c>
       <c r="AJ27" s="5">
         <f t="shared" si="61"/>
-        <v>36.249249829581181</v>
-      </c>
-    </row>
-    <row r="28" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>42.40167257495068</v>
+      </c>
+    </row>
+    <row r="28" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
@@ -3542,7 +3545,7 @@
         <v>139983</v>
       </c>
     </row>
-    <row r="29" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="AL29" s="5" t="s">
         <v>60</v>
       </c>
@@ -3550,7 +3553,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="30" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>55</v>
       </c>
@@ -3677,7 +3680,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="31" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="AL31" s="2" t="s">
         <v>58</v>
       </c>
@@ -3685,26 +3688,26 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="32" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="L32" s="3"/>
       <c r="AL32" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AM32" s="2">
         <f>NPV(AM31,W26:ED26)</f>
-        <v>26721763.736904223</v>
-      </c>
-    </row>
-    <row r="33" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>29763303.674394269</v>
+      </c>
+    </row>
+    <row r="33" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="AL33" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AM33" s="2">
         <f>+AM32+Main!J6*1000-Main!J7*1000</f>
-        <v>27444210.736904223</v>
-      </c>
-    </row>
-    <row r="34" spans="2:39" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>30485750.674394269</v>
+      </c>
+    </row>
+    <row r="34" spans="2:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
         <v>50</v>
       </c>
@@ -3761,10 +3764,10 @@
       </c>
       <c r="AM34" s="5">
         <f>AM33/(Main!J4*1000)</f>
-        <v>184.57086283663023</v>
-      </c>
-    </row>
-    <row r="35" spans="2:39" s="8" customFormat="1" x14ac:dyDescent="0.15">
+        <v>205.02616599678711</v>
+      </c>
+    </row>
+    <row r="35" spans="2:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
         <v>57</v>
       </c>
@@ -3846,7 +3849,7 @@
       </c>
       <c r="AA35" s="8">
         <f t="shared" si="70"/>
-        <v>0.05</v>
+        <v>5.000000000000001E-2</v>
       </c>
       <c r="AB35" s="8">
         <f t="shared" si="70"/>
@@ -3892,13 +3895,13 @@
         <v>200.24</v>
       </c>
     </row>
-    <row r="36" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="AM36" s="7">
         <f>AM34/AM35-1</f>
-        <v>-7.8251783676437148E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:39" s="7" customFormat="1" x14ac:dyDescent="0.15">
+        <v>2.3902147407047103E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:39" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>56</v>
       </c>
@@ -3967,10 +3970,10 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="38" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>64</v>
       </c>
@@ -4015,63 +4018,63 @@
         <v>-134306.47053342243</v>
       </c>
       <c r="W41" s="2">
-        <f>R41+W26</f>
-        <v>-83413.137858058952</v>
+        <f>R41</f>
+        <v>-134306.47053342243</v>
       </c>
       <c r="X41" s="2">
-        <f t="shared" ref="X41:AJ41" si="74">S41+X26</f>
-        <v>910511.87289252016</v>
+        <f>W41+X26</f>
+        <v>776205.40235909773</v>
       </c>
       <c r="Y41" s="2">
-        <f t="shared" si="74"/>
-        <v>1973208.4960549017</v>
+        <f t="shared" ref="Y41:AJ41" si="74">X41+Y26</f>
+        <v>2749413.8984139995</v>
       </c>
       <c r="Z41" s="2">
         <f t="shared" si="74"/>
-        <v>2164812.9266275158</v>
+        <v>4936348.6790087502</v>
       </c>
       <c r="AA41" s="2">
         <f t="shared" si="74"/>
-        <v>2493893.2021394372</v>
+        <v>7509230.650091053</v>
       </c>
       <c r="AB41" s="2">
         <f t="shared" si="74"/>
-        <v>2579585.3536869376</v>
+        <v>10315166.258902669</v>
       </c>
       <c r="AC41" s="2">
         <f t="shared" si="74"/>
-        <v>3744737.1637928365</v>
+        <v>13369855.605601633</v>
       </c>
       <c r="AD41" s="2">
         <f t="shared" si="74"/>
-        <v>5226068.4164199829</v>
+        <v>16897031.401558265</v>
       </c>
       <c r="AE41" s="2">
         <f t="shared" si="74"/>
-        <v>5658106.4768742453</v>
+        <v>20722947.396881435</v>
       </c>
       <c r="AF41" s="2">
         <f t="shared" si="74"/>
-        <v>6208901.0055088717</v>
+        <v>24867303.166471075</v>
       </c>
       <c r="AG41" s="2">
         <f t="shared" si="74"/>
-        <v>6769256.9288569158</v>
+        <v>29588739.203228477</v>
       </c>
       <c r="AH41" s="2">
         <f t="shared" si="74"/>
-        <v>8195379.6044778433</v>
+        <v>34689736.888733074</v>
       </c>
       <c r="AI41" s="2">
         <f t="shared" si="74"/>
-        <v>9976165.8137477711</v>
+        <v>40194923.468662135</v>
       </c>
       <c r="AJ41" s="2">
         <f t="shared" si="74"/>
-        <v>10732385.215768509</v>
-      </c>
-    </row>
-    <row r="42" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>46130436.800721459</v>
+      </c>
+    </row>
+    <row r="42" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>1</v>
       </c>
@@ -4092,7 +4095,7 @@
         <v>3342447</v>
       </c>
     </row>
-    <row r="43" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>23</v>
       </c>
@@ -4109,7 +4112,7 @@
         <v>178594</v>
       </c>
     </row>
-    <row r="44" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>24</v>
       </c>
@@ -4126,7 +4129,7 @@
         <v>1609607</v>
       </c>
     </row>
-    <row r="45" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>25</v>
       </c>
@@ -4143,7 +4146,7 @@
         <v>144678</v>
       </c>
     </row>
-    <row r="46" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>26</v>
       </c>
@@ -4160,7 +4163,7 @@
         <v>2533726</v>
       </c>
     </row>
-    <row r="47" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>27</v>
       </c>
@@ -4177,7 +4180,7 @@
         <v>3993250</v>
       </c>
     </row>
-    <row r="48" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>28</v>
       </c>
@@ -4194,7 +4197,7 @@
         <v>66650</v>
       </c>
     </row>
-    <row r="49" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>34</v>
       </c>
@@ -4215,8 +4218,8 @@
         <v>11868952</v>
       </c>
     </row>
-    <row r="50" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="51" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>29</v>
       </c>
@@ -4233,7 +4236,7 @@
         <v>1114878</v>
       </c>
     </row>
-    <row r="52" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>30</v>
       </c>
@@ -4250,7 +4253,7 @@
         <v>558212</v>
       </c>
     </row>
-    <row r="53" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>67</v>
       </c>
@@ -4271,7 +4274,7 @@
         <v>1092069</v>
       </c>
     </row>
-    <row r="54" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>65</v>
       </c>
@@ -4292,7 +4295,7 @@
         <v>2007347</v>
       </c>
     </row>
-    <row r="55" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>66</v>
       </c>
@@ -4309,7 +4312,7 @@
         <v>679834</v>
       </c>
     </row>
-    <row r="56" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>2</v>
       </c>
@@ -4330,7 +4333,7 @@
         <v>3283974</v>
       </c>
     </row>
-    <row r="57" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>31</v>
       </c>
@@ -4347,7 +4350,7 @@
         <v>612344</v>
       </c>
     </row>
-    <row r="58" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>63</v>
       </c>
@@ -4368,7 +4371,7 @@
         <v>9348658</v>
       </c>
     </row>
-    <row r="59" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>32</v>
       </c>
@@ -4385,7 +4388,7 @@
         <v>2520294</v>
       </c>
     </row>
-    <row r="60" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>33</v>
       </c>
@@ -4405,7 +4408,7 @@
         <v>11868952</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>

--- a/investing spreadsheets/TSLA.xlsx
+++ b/investing spreadsheets/TSLA.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOOK\Desktop\stock-exchange-berkeley\investing spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/billymbp/stock-exchange-berkeley/investing spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="20535" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28380" windowHeight="20540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -285,12 +285,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -309,7 +315,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -320,6 +326,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -365,6 +372,50 @@
         <a:xfrm>
           <a:off x="9690421" y="0"/>
           <a:ext cx="0" cy="8900673"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>96051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18015858" y="0"/>
+          <a:ext cx="0" cy="9893194"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -655,13 +706,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="I3:J8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="10.875" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="9:10" x14ac:dyDescent="0.2">
@@ -724,22 +775,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:ED61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Y9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH41" sqref="AH41"/>
+      <selection pane="bottomRight" activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="10" width="10.875" style="1"/>
-    <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="1"/>
-    <col min="13" max="13" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.875" style="1"/>
+    <col min="3" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:36" x14ac:dyDescent="0.2">
@@ -866,6 +917,16 @@
       <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="C6" s="2">
+        <v>7535</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8763</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="2">
+        <v>11627</v>
+      </c>
       <c r="G6" s="2">
         <v>11160</v>
       </c>
@@ -976,6 +1037,18 @@
       <c r="B7" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="C7" s="2">
+        <v>6457</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7579</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7785</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9834</v>
+      </c>
       <c r="G7" s="2">
         <v>10045</v>
       </c>
@@ -1003,28 +1076,44 @@
       <c r="B8" s="7" t="s">
         <v>54</v>
       </c>
+      <c r="C8" s="7">
+        <f t="shared" ref="C8:G8" si="3">C7/C6</f>
+        <v>0.85693430656934311</v>
+      </c>
+      <c r="D8" s="7" t="e">
+        <f>#REF!/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E8" s="7">
+        <f>D7/D6</f>
+        <v>0.86488645441058998</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="3"/>
+        <v>0.84578997161778624</v>
+      </c>
       <c r="G8" s="7">
-        <f t="shared" ref="G8:L8" si="3">G7/G6</f>
+        <f t="shared" ref="G8:L8" si="4">G7/G6</f>
         <v>0.90008960573476704</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.90044506910283439</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.88633412267970357</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.245137849967942</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.95551257253384914</v>
       </c>
       <c r="L8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.78506405014990466</v>
       </c>
       <c r="M8" s="7">
@@ -1037,23 +1126,23 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" ref="H9:L9" si="4">H6/G6-1</f>
+        <f t="shared" ref="H9:L9" si="5">H6/G6-1</f>
         <v>0.14758064516129021</v>
       </c>
       <c r="I9" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2175372842976548E-2</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2263387059812167E-2</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10493695234024369</v>
       </c>
       <c r="L9" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.18278529980657643</v>
       </c>
       <c r="M9" s="7">
@@ -1061,23 +1150,23 @@
         <v>0.37285363859362231</v>
       </c>
       <c r="N9" s="7">
-        <f t="shared" ref="N9:R9" si="5">N6/M6-1</f>
+        <f t="shared" ref="N9:R9" si="6">N6/M6-1</f>
         <v>0.11911852293031577</v>
       </c>
       <c r="O9" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.10643959552953697</v>
       </c>
       <c r="P9" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.6200096200096175E-2</v>
       </c>
       <c r="Q9" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.7757788503729728E-2</v>
       </c>
       <c r="R9" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.067769261799107E-2</v>
       </c>
     </row>
@@ -1118,27 +1207,27 @@
         <v>1181852</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" ref="M12:R12" si="6">M6*M30/1000</f>
+        <f t="shared" ref="M12:R12" si="7">M6*M30/1000</f>
         <v>1622509.8184791496</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1815780.7914963204</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2009051.7645134914</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2202322.7375306627</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2395593.7105478332</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2588864.6835650043</v>
       </c>
       <c r="T12" s="2">
@@ -1158,55 +1247,55 @@
       </c>
       <c r="X12" s="2">
         <f>X6*X30/1000</f>
-        <v>11826415.8440139</v>
+        <v>13104061.877023712</v>
       </c>
       <c r="Y12" s="2">
-        <f t="shared" ref="Y12:AJ12" si="7">Y6*Y30/1000</f>
-        <v>16852642.577719804</v>
+        <f t="shared" ref="Y12:AJ12" si="8">Y6*Y30/1000</f>
+        <v>18673288.174758788</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" si="7"/>
-        <v>17611011.493717194</v>
+        <f t="shared" si="8"/>
+        <v>19513586.142622933</v>
       </c>
       <c r="AA12" s="2">
-        <f t="shared" si="7"/>
-        <v>18403507.010934468</v>
+        <f t="shared" si="8"/>
+        <v>20391697.519040961</v>
       </c>
       <c r="AB12" s="2">
-        <f t="shared" si="7"/>
-        <v>19231664.826426517</v>
+        <f t="shared" si="8"/>
+        <v>21309323.907397807</v>
       </c>
       <c r="AC12" s="2">
-        <f t="shared" si="7"/>
-        <v>20097089.743615717</v>
+        <f t="shared" si="8"/>
+        <v>22268243.48323071</v>
       </c>
       <c r="AD12" s="2">
-        <f t="shared" si="7"/>
-        <v>21001458.782078419</v>
+        <f t="shared" si="8"/>
+        <v>23270314.439976092</v>
       </c>
       <c r="AE12" s="2">
-        <f t="shared" si="7"/>
-        <v>21946524.427271951</v>
+        <f t="shared" si="8"/>
+        <v>24317478.589775022</v>
       </c>
       <c r="AF12" s="2">
-        <f t="shared" si="7"/>
-        <v>22934118.026499189</v>
+        <f t="shared" si="8"/>
+        <v>25411765.126314897</v>
       </c>
       <c r="AG12" s="2">
-        <f t="shared" si="7"/>
-        <v>23966153.337691654</v>
+        <f t="shared" si="8"/>
+        <v>26555294.556999065</v>
       </c>
       <c r="AH12" s="2">
-        <f t="shared" si="7"/>
-        <v>25044630.237887789</v>
+        <f t="shared" si="8"/>
+        <v>27750282.812064026</v>
       </c>
       <c r="AI12" s="2">
-        <f t="shared" si="7"/>
-        <v>26171638.59859274</v>
+        <f t="shared" si="8"/>
+        <v>28999045.538606912</v>
       </c>
       <c r="AJ12" s="2">
-        <f t="shared" si="7"/>
-        <v>27349362.335529413</v>
+        <f t="shared" si="8"/>
+        <v>30304002.587844223</v>
       </c>
     </row>
     <row r="13" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1248,23 +1337,23 @@
         <v>86761.02</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" ref="N13:R13" si="8">J13*1.03</f>
+        <f t="shared" ref="N13:R13" si="9">J13*1.03</f>
         <v>100293.16</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>124613.52</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>90809.95</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>89363.850600000005</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>103301.95480000001</v>
       </c>
       <c r="T13" s="2">
@@ -1287,120 +1376,120 @@
         <v>448898.20294000005</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" ref="Y13:AJ13" si="9">X13*1.1</f>
+        <f t="shared" ref="Y13:AJ13" si="10">X13*1.1</f>
         <v>493788.02323400008</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>543166.82555740012</v>
       </c>
       <c r="AA13" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>597483.50811314024</v>
       </c>
       <c r="AB13" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>657231.85892445431</v>
       </c>
       <c r="AC13" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>722955.04481689981</v>
       </c>
       <c r="AD13" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>795250.54929858982</v>
       </c>
       <c r="AE13" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>874775.60422844882</v>
       </c>
       <c r="AF13" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>962253.16465129377</v>
       </c>
       <c r="AG13" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1058478.4811164232</v>
       </c>
       <c r="AH13" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1164326.3292280657</v>
       </c>
       <c r="AI13" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1280758.9621508725</v>
       </c>
       <c r="AJ13" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1408834.8583659597</v>
       </c>
     </row>
-    <row r="14" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" ref="C14:L14" si="10">C12+C13</f>
+        <f t="shared" ref="C14:L14" si="11">C12+C13</f>
         <v>620542</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>769349</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>851804</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>956661</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>939880</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>954976</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>936789</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1214379</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1147048</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1270017</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" ref="M14:R14" si="11">M12+M13</f>
+        <f t="shared" ref="M14:R14" si="12">M12+M13</f>
         <v>1709270.8384791496</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1916073.9514963203</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2133665.2845134912</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2293132.6875306629</v>
       </c>
       <c r="Q14" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2484957.5611478332</v>
       </c>
       <c r="R14" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2692166.6383650042</v>
       </c>
       <c r="T14" s="4">
@@ -1419,56 +1508,56 @@
         <v>9603922.1715569906</v>
       </c>
       <c r="X14" s="4">
-        <f t="shared" ref="X14:AJ14" si="12">X12+X13</f>
-        <v>12275314.0469539</v>
+        <f t="shared" ref="X14:AJ14" si="13">X12+X13</f>
+        <v>13552960.079963712</v>
       </c>
       <c r="Y14" s="4">
-        <f t="shared" si="12"/>
-        <v>17346430.600953802</v>
+        <f t="shared" si="13"/>
+        <v>19167076.197992787</v>
       </c>
       <c r="Z14" s="4">
-        <f t="shared" si="12"/>
-        <v>18154178.319274593</v>
+        <f t="shared" si="13"/>
+        <v>20056752.968180332</v>
       </c>
       <c r="AA14" s="4">
-        <f t="shared" si="12"/>
-        <v>19000990.51904761</v>
+        <f t="shared" si="13"/>
+        <v>20989181.027154103</v>
       </c>
       <c r="AB14" s="4">
-        <f t="shared" si="12"/>
-        <v>19888896.685350973</v>
+        <f t="shared" si="13"/>
+        <v>21966555.766322263</v>
       </c>
       <c r="AC14" s="4">
-        <f t="shared" si="12"/>
-        <v>20820044.788432617</v>
+        <f t="shared" si="13"/>
+        <v>22991198.52804761</v>
       </c>
       <c r="AD14" s="4">
-        <f t="shared" si="12"/>
-        <v>21796709.331377007</v>
+        <f t="shared" si="13"/>
+        <v>24065564.989274681</v>
       </c>
       <c r="AE14" s="4">
-        <f t="shared" si="12"/>
-        <v>22821300.031500399</v>
+        <f t="shared" si="13"/>
+        <v>25192254.19400347</v>
       </c>
       <c r="AF14" s="4">
-        <f t="shared" si="12"/>
-        <v>23896371.191150483</v>
+        <f t="shared" si="13"/>
+        <v>26374018.29096619</v>
       </c>
       <c r="AG14" s="4">
-        <f t="shared" si="12"/>
-        <v>25024631.818808075</v>
+        <f t="shared" si="13"/>
+        <v>27613773.038115487</v>
       </c>
       <c r="AH14" s="4">
-        <f t="shared" si="12"/>
-        <v>26208956.567115854</v>
+        <f t="shared" si="13"/>
+        <v>28914609.141292091</v>
       </c>
       <c r="AI14" s="4">
-        <f t="shared" si="12"/>
-        <v>27452397.560743611</v>
+        <f t="shared" si="13"/>
+        <v>30279804.500757784</v>
       </c>
       <c r="AJ14" s="4">
-        <f t="shared" si="12"/>
-        <v>28758197.193895373</v>
+        <f t="shared" si="13"/>
+        <v>31712837.446210183</v>
       </c>
     </row>
     <row r="15" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1568,43 +1657,43 @@
         <v>36</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" ref="C17:L17" si="13">C15+C16</f>
+        <f t="shared" ref="C17:L17" si="14">C15+C16</f>
         <v>465414</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>556354</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>599953</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>694964</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>679807</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>741606</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>705293</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>995815</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>894580</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>995241</v>
       </c>
       <c r="M17" s="2">
@@ -1612,23 +1701,23 @@
         <v>1281953.1288593621</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" ref="N17:R17" si="14">N14-N18</f>
+        <f t="shared" ref="N17:R17" si="15">N14-N18</f>
         <v>1437055.4636222403</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1600248.9633851184</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1719849.5156479971</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1863718.1708608749</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2019124.9787737532</v>
       </c>
       <c r="T17" s="2">
@@ -1648,55 +1737,55 @@
       </c>
       <c r="X17" s="2">
         <f>X14-X18</f>
-        <v>9206485.5352154244</v>
+        <v>10164720.059972784</v>
       </c>
       <c r="Y17" s="2">
-        <f t="shared" ref="Y17:AJ17" si="15">Y14-Y18</f>
-        <v>13009822.950715352</v>
+        <f t="shared" ref="Y17:AJ17" si="16">Y14-Y18</f>
+        <v>14375307.14849459</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="15"/>
-        <v>13615633.739455946</v>
+        <f t="shared" si="16"/>
+        <v>15042564.72613525</v>
       </c>
       <c r="AA17" s="2">
-        <f t="shared" si="15"/>
-        <v>14060732.984095231</v>
+        <f t="shared" si="16"/>
+        <v>15531993.960094035</v>
       </c>
       <c r="AB17" s="2">
-        <f t="shared" si="15"/>
-        <v>14717783.54715972</v>
+        <f t="shared" si="16"/>
+        <v>16255251.267078474</v>
       </c>
       <c r="AC17" s="2">
-        <f t="shared" si="15"/>
-        <v>15406833.143440135</v>
+        <f t="shared" si="16"/>
+        <v>17013486.910755232</v>
       </c>
       <c r="AD17" s="2">
-        <f t="shared" si="15"/>
-        <v>15911597.811905215</v>
+        <f t="shared" si="16"/>
+        <v>17567862.442170516</v>
       </c>
       <c r="AE17" s="2">
-        <f t="shared" si="15"/>
-        <v>16659549.022995291</v>
+        <f t="shared" si="16"/>
+        <v>18390345.561622534</v>
       </c>
       <c r="AF17" s="2">
-        <f t="shared" si="15"/>
-        <v>17444350.969539851</v>
+        <f t="shared" si="16"/>
+        <v>19253033.352405317</v>
       </c>
       <c r="AG17" s="2">
-        <f t="shared" si="15"/>
-        <v>18017734.909541816</v>
+        <f t="shared" si="16"/>
+        <v>19881916.587443151</v>
       </c>
       <c r="AH17" s="2">
-        <f t="shared" si="15"/>
-        <v>18870448.728323415</v>
+        <f t="shared" si="16"/>
+        <v>20818518.581730306</v>
       </c>
       <c r="AI17" s="2">
-        <f t="shared" si="15"/>
-        <v>19765726.243735399</v>
+        <f t="shared" si="16"/>
+        <v>21801459.240545601</v>
       </c>
       <c r="AJ17" s="2">
-        <f t="shared" si="15"/>
-        <v>20705901.979604669</v>
+        <f t="shared" si="16"/>
+        <v>22833242.961271331</v>
       </c>
     </row>
     <row r="18" spans="2:134" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1704,43 +1793,43 @@
         <v>37</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" ref="C18:L18" si="16">C14-C17</f>
+        <f t="shared" ref="C18:L18" si="17">C14-C17</f>
         <v>155128</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>212995</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>251851</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>261697</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>260073</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>213370</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>231496</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>218564</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>252468</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>274776</v>
       </c>
       <c r="M18" s="4">
@@ -1748,23 +1837,23 @@
         <v>427317.70961978741</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" ref="N18:R18" si="17">N14*0.25</f>
+        <f t="shared" ref="N18:R18" si="18">N14*0.25</f>
         <v>479018.48787408008</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>533416.3211283728</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>573283.17188266572</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>621239.39028695831</v>
       </c>
       <c r="R18" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>673041.65959125105</v>
       </c>
       <c r="T18" s="4">
@@ -1784,55 +1873,55 @@
       </c>
       <c r="X18" s="4">
         <f>X14*0.25</f>
-        <v>3068828.5117384749</v>
+        <v>3388240.019990928</v>
       </c>
       <c r="Y18" s="4">
-        <f t="shared" ref="Y18:Z18" si="18">Y14*0.25</f>
-        <v>4336607.6502384506</v>
+        <f t="shared" ref="Y18:Z18" si="19">Y14*0.25</f>
+        <v>4791769.0494981967</v>
       </c>
       <c r="Z18" s="4">
-        <f t="shared" si="18"/>
-        <v>4538544.5798186483</v>
+        <f t="shared" si="19"/>
+        <v>5014188.2420450831</v>
       </c>
       <c r="AA18" s="4">
         <f>AA14*0.26</f>
-        <v>4940257.5349523788</v>
+        <v>5457187.0670600673</v>
       </c>
       <c r="AB18" s="4">
-        <f t="shared" ref="AB18:AC18" si="19">AB14*0.26</f>
-        <v>5171113.1381912529</v>
+        <f t="shared" ref="AB18:AC18" si="20">AB14*0.26</f>
+        <v>5711304.4992437884</v>
       </c>
       <c r="AC18" s="4">
-        <f t="shared" si="19"/>
-        <v>5413211.644992481</v>
+        <f t="shared" si="20"/>
+        <v>5977711.617292379</v>
       </c>
       <c r="AD18" s="4">
         <f>AD14*0.27</f>
-        <v>5885111.5194717925</v>
+        <v>6497702.547104164</v>
       </c>
       <c r="AE18" s="4">
-        <f t="shared" ref="AE18:AF18" si="20">AE14*0.27</f>
-        <v>6161751.0085051078</v>
+        <f t="shared" ref="AE18:AF18" si="21">AE14*0.27</f>
+        <v>6801908.6323809372</v>
       </c>
       <c r="AF18" s="4">
-        <f t="shared" si="20"/>
-        <v>6452020.2216106309</v>
+        <f t="shared" si="21"/>
+        <v>7120984.9385608723</v>
       </c>
       <c r="AG18" s="4">
         <f>AG14*0.28</f>
-        <v>7006896.9092662614</v>
+        <v>7731856.4506723369</v>
       </c>
       <c r="AH18" s="4">
-        <f t="shared" ref="AH18:AJ18" si="21">AH14*0.28</f>
-        <v>7338507.8387924396</v>
+        <f t="shared" ref="AH18:AJ18" si="22">AH14*0.28</f>
+        <v>8096090.5595617862</v>
       </c>
       <c r="AI18" s="4">
-        <f t="shared" si="21"/>
-        <v>7686671.3170082122</v>
+        <f t="shared" si="22"/>
+        <v>8478345.2602121811</v>
       </c>
       <c r="AJ18" s="4">
-        <f t="shared" si="21"/>
-        <v>8052295.2142907055</v>
+        <f t="shared" si="22"/>
+        <v>8879594.4849388525</v>
       </c>
     </row>
     <row r="19" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1874,23 +1963,23 @@
         <v>193580.64</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" ref="N19:R19" si="22">M19*1.01</f>
+        <f t="shared" ref="N19:R19" si="23">M19*1.01</f>
         <v>195516.44640000002</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>197471.61086400002</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>199446.32697264003</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>201440.79024236643</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>203455.19814479011</v>
       </c>
       <c r="T19" s="2">
@@ -1901,7 +1990,7 @@
         <v>717900</v>
       </c>
       <c r="V19" s="2">
-        <f t="shared" ref="V19:V25" si="23">SUM(K19:N19)</f>
+        <f t="shared" ref="V19:V25" si="24">SUM(K19:N19)</f>
         <v>763243.08640000003</v>
       </c>
       <c r="W19" s="2">
@@ -1913,51 +2002,51 @@
         <v>817850.20474827266</v>
       </c>
       <c r="Y19" s="2">
-        <f t="shared" ref="Y19:AJ19" si="24">X19*1.02</f>
+        <f t="shared" ref="Y19:AJ19" si="25">X19*1.02</f>
         <v>834207.20884323819</v>
       </c>
       <c r="Z19" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>850891.35302010295</v>
       </c>
       <c r="AA19" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>867909.18008050497</v>
       </c>
       <c r="AB19" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>885267.3636821151</v>
       </c>
       <c r="AC19" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>902972.71095575741</v>
       </c>
       <c r="AD19" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>921032.16517487261</v>
       </c>
       <c r="AE19" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>939452.80847837008</v>
       </c>
       <c r="AF19" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>958241.86464793747</v>
       </c>
       <c r="AG19" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>977406.70194089622</v>
       </c>
       <c r="AH19" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>996954.83597971417</v>
       </c>
       <c r="AI19" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1016893.9326993085</v>
       </c>
       <c r="AJ19" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1037231.8113532946</v>
       </c>
     </row>
@@ -2000,23 +2089,23 @@
         <v>324363.52000000002</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" ref="N20:R20" si="25">M20*1.01</f>
+        <f t="shared" ref="N20:R20" si="26">M20*1.01</f>
         <v>327607.15520000004</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>330883.22675200005</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>334192.05901952006</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>337533.97960971529</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>340909.31940581242</v>
       </c>
       <c r="T20" s="2">
@@ -2027,7 +2116,7 @@
         <v>922232</v>
       </c>
       <c r="V20" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1291332.6751999999</v>
       </c>
       <c r="W20" s="2">
@@ -2039,51 +2128,51 @@
         <v>1383824.1423306593</v>
       </c>
       <c r="Y20" s="2">
-        <f t="shared" ref="Y20:AJ20" si="26">X20*1.03</f>
+        <f t="shared" ref="Y20:AJ20" si="27">X20*1.03</f>
         <v>1425338.8666005791</v>
       </c>
       <c r="Z20" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1468099.0325985965</v>
       </c>
       <c r="AA20" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1512142.0035765544</v>
       </c>
       <c r="AB20" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1557506.2636838511</v>
       </c>
       <c r="AC20" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1604231.4515943667</v>
       </c>
       <c r="AD20" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1652358.3951421978</v>
       </c>
       <c r="AE20" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1701929.1469964639</v>
       </c>
       <c r="AF20" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1752987.0214063579</v>
       </c>
       <c r="AG20" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1805576.6320485487</v>
       </c>
       <c r="AH20" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1859743.9310100051</v>
       </c>
       <c r="AI20" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1915536.2489403053</v>
       </c>
       <c r="AJ20" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1973002.3364085145</v>
       </c>
     </row>
@@ -2092,67 +2181,67 @@
         <v>40</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" ref="C21:L21" si="27">C19+C20</f>
+        <f t="shared" ref="C21:L21" si="28">C19+C20</f>
         <v>199095</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>241748</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>290980</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>336535</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>362519</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>383558</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>415158</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>478897</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>500692</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>512816</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" ref="M21:R21" si="28">M19+M20</f>
+        <f t="shared" ref="M21:R21" si="29">M19+M20</f>
         <v>517944.16000000003</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>523123.60160000005</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>528354.83761600009</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>533638.38599216007</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>538974.76985208178</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>544364.51755060256</v>
       </c>
       <c r="T21" s="2">
@@ -2160,67 +2249,67 @@
         <v>1068358</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" ref="U21:W21" si="29">U19+U20</f>
+        <f t="shared" ref="U21:W21" si="30">U19+U20</f>
         <v>1640132</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2054575.7615999999</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2145332.5110108447</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" ref="X21" si="30">X19+X20</f>
+        <f t="shared" ref="X21" si="31">X19+X20</f>
         <v>2201674.347078932</v>
       </c>
       <c r="Y21" s="2">
-        <f t="shared" ref="Y21" si="31">Y19+Y20</f>
+        <f t="shared" ref="Y21" si="32">Y19+Y20</f>
         <v>2259546.0754438173</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" ref="Z21" si="32">Z19+Z20</f>
+        <f t="shared" ref="Z21" si="33">Z19+Z20</f>
         <v>2318990.3856186997</v>
       </c>
       <c r="AA21" s="2">
-        <f t="shared" ref="AA21" si="33">AA19+AA20</f>
+        <f t="shared" ref="AA21" si="34">AA19+AA20</f>
         <v>2380051.1836570594</v>
       </c>
       <c r="AB21" s="2">
-        <f t="shared" ref="AB21" si="34">AB19+AB20</f>
+        <f t="shared" ref="AB21" si="35">AB19+AB20</f>
         <v>2442773.6273659663</v>
       </c>
       <c r="AC21" s="2">
-        <f t="shared" ref="AC21" si="35">AC19+AC20</f>
+        <f t="shared" ref="AC21" si="36">AC19+AC20</f>
         <v>2507204.1625501243</v>
       </c>
       <c r="AD21" s="2">
-        <f t="shared" ref="AD21" si="36">AD19+AD20</f>
+        <f t="shared" ref="AD21" si="37">AD19+AD20</f>
         <v>2573390.5603170702</v>
       </c>
       <c r="AE21" s="2">
-        <f t="shared" ref="AE21" si="37">AE19+AE20</f>
+        <f t="shared" ref="AE21" si="38">AE19+AE20</f>
         <v>2641381.955474834</v>
       </c>
       <c r="AF21" s="2">
-        <f t="shared" ref="AF21" si="38">AF19+AF20</f>
+        <f t="shared" ref="AF21" si="39">AF19+AF20</f>
         <v>2711228.8860542951</v>
       </c>
       <c r="AG21" s="2">
-        <f t="shared" ref="AG21" si="39">AG19+AG20</f>
+        <f t="shared" ref="AG21" si="40">AG19+AG20</f>
         <v>2782983.3339894451</v>
       </c>
       <c r="AH21" s="2">
-        <f t="shared" ref="AH21" si="40">AH19+AH20</f>
+        <f t="shared" ref="AH21" si="41">AH19+AH20</f>
         <v>2856698.7669897191</v>
       </c>
       <c r="AI21" s="2">
-        <f t="shared" ref="AI21" si="41">AI19+AI20</f>
+        <f t="shared" ref="AI21" si="42">AI19+AI20</f>
         <v>2932430.1816396136</v>
       </c>
       <c r="AJ21" s="2">
-        <f t="shared" ref="AJ21" si="42">AJ19+AJ20</f>
+        <f t="shared" ref="AJ21" si="43">AJ19+AJ20</f>
         <v>3010234.1477618092</v>
       </c>
     </row>
@@ -2229,67 +2318,67 @@
         <v>46</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" ref="C22:L22" si="43">C18-C21</f>
+        <f t="shared" ref="C22:L22" si="44">C18-C21</f>
         <v>-43967</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-28753</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-39129</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-74838</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-102446</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-170188</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-183662</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-260333</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-248224</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-238040</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" ref="M22:R22" si="44">M18-M21</f>
+        <f t="shared" ref="M22:R22" si="45">M18-M21</f>
         <v>-90626.450380212627</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-44105.113725919975</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>5061.4835123727098</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>39644.785890505649</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>82264.620434876531</v>
       </c>
       <c r="R22" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>128677.1420406485</v>
       </c>
       <c r="T22" s="4">
@@ -2308,56 +2397,56 @@
         <v>255648.03187840292</v>
       </c>
       <c r="X22" s="4">
-        <f t="shared" ref="X22:AJ22" si="45">X18-X21</f>
-        <v>867154.16465954296</v>
+        <f t="shared" ref="X22:AJ22" si="46">X18-X21</f>
+        <v>1186565.672911996</v>
       </c>
       <c r="Y22" s="4">
-        <f t="shared" si="45"/>
-        <v>2077061.5747946333</v>
+        <f t="shared" si="46"/>
+        <v>2532222.9740543794</v>
       </c>
       <c r="Z22" s="4">
-        <f t="shared" si="45"/>
-        <v>2219554.1941999486</v>
+        <f t="shared" si="46"/>
+        <v>2695197.8564263834</v>
       </c>
       <c r="AA22" s="4">
-        <f t="shared" si="45"/>
-        <v>2560206.3512953194</v>
+        <f t="shared" si="46"/>
+        <v>3077135.8834030079</v>
       </c>
       <c r="AB22" s="4">
-        <f t="shared" si="45"/>
-        <v>2728339.5108252866</v>
+        <f t="shared" si="46"/>
+        <v>3268530.8718778221</v>
       </c>
       <c r="AC22" s="4">
-        <f t="shared" si="45"/>
-        <v>2906007.4824423566</v>
+        <f t="shared" si="46"/>
+        <v>3470507.4547422547</v>
       </c>
       <c r="AD22" s="4">
-        <f t="shared" si="45"/>
-        <v>3311720.9591547223</v>
+        <f t="shared" si="46"/>
+        <v>3924311.9867870938</v>
       </c>
       <c r="AE22" s="4">
-        <f t="shared" si="45"/>
-        <v>3520369.0530302739</v>
+        <f t="shared" si="46"/>
+        <v>4160526.6769061033</v>
       </c>
       <c r="AF22" s="4">
-        <f t="shared" si="45"/>
-        <v>3740791.3355563357</v>
+        <f t="shared" si="46"/>
+        <v>4409756.0525065772</v>
       </c>
       <c r="AG22" s="4">
-        <f t="shared" si="45"/>
-        <v>4223913.5752768163</v>
+        <f t="shared" si="46"/>
+        <v>4948873.1166828917</v>
       </c>
       <c r="AH22" s="4">
-        <f t="shared" si="45"/>
-        <v>4481809.0718027204</v>
+        <f t="shared" si="46"/>
+        <v>5239391.7925720671</v>
       </c>
       <c r="AI22" s="4">
-        <f t="shared" si="45"/>
-        <v>4754241.1353685986</v>
+        <f t="shared" si="46"/>
+        <v>5545915.0785725676</v>
       </c>
       <c r="AJ22" s="4">
-        <f t="shared" si="45"/>
-        <v>5042061.0665288959</v>
+        <f t="shared" si="46"/>
+        <v>5869360.3371770438</v>
       </c>
     </row>
     <row r="23" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2409,23 +2498,23 @@
         <v>-51499</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" ref="N23:R23" si="46">M23</f>
+        <f t="shared" ref="N23:R23" si="47">M23</f>
         <v>-51499</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-51499</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-51499</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-51499</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-51499</v>
       </c>
       <c r="T23" s="2">
@@ -2436,7 +2525,7 @@
         <v>-117343</v>
       </c>
       <c r="V23" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-184694</v>
       </c>
       <c r="W23" s="2">
@@ -2450,47 +2539,47 @@
       </c>
       <c r="Z23" s="2">
         <f>Y41*$AM$29</f>
-        <v>82482.416952419982</v>
+        <v>105515.97934127502</v>
       </c>
       <c r="AA23" s="2">
-        <f t="shared" ref="AA23:AJ23" si="47">Z41*$AM$29</f>
-        <v>148090.4603702625</v>
+        <f t="shared" ref="AA23:AJ23" si="48">Z41*$AM$29</f>
+        <v>185336.32366065329</v>
       </c>
       <c r="AB23" s="2">
-        <f t="shared" si="47"/>
-        <v>225276.91950273159</v>
+        <f t="shared" si="48"/>
+        <v>278316.78156196763</v>
       </c>
       <c r="AC23" s="2">
-        <f t="shared" si="47"/>
-        <v>309454.98776708008</v>
+        <f t="shared" si="48"/>
+        <v>379401.93968500168</v>
       </c>
       <c r="AD23" s="2">
-        <f t="shared" si="47"/>
-        <v>401095.66816804896</v>
+        <f t="shared" si="48"/>
+        <v>489124.35742617841</v>
       </c>
       <c r="AE23" s="2">
-        <f t="shared" si="47"/>
-        <v>506910.94204674795</v>
+        <f t="shared" si="48"/>
+        <v>614907.29323625669</v>
       </c>
       <c r="AF23" s="2">
-        <f t="shared" si="47"/>
-        <v>621688.42190644308</v>
+        <f t="shared" si="48"/>
+        <v>751007.16138531396</v>
       </c>
       <c r="AG23" s="2">
-        <f t="shared" si="47"/>
-        <v>746019.09499413217</v>
+        <f t="shared" si="48"/>
+        <v>898088.91298123286</v>
       </c>
       <c r="AH23" s="2">
-        <f t="shared" si="47"/>
-        <v>887662.17609685427</v>
+        <f t="shared" si="48"/>
+        <v>1064727.3308266604</v>
       </c>
       <c r="AI23" s="2">
-        <f t="shared" si="47"/>
-        <v>1040692.1066619921</v>
+        <f t="shared" si="48"/>
+        <v>1244394.7258435241</v>
       </c>
       <c r="AJ23" s="2">
-        <f t="shared" si="47"/>
-        <v>1205847.7040598639</v>
+        <f t="shared" si="48"/>
+        <v>1437918.5552693827</v>
       </c>
     </row>
     <row r="24" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2498,67 +2587,67 @@
         <v>42</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" ref="C24:L24" si="48">SUM(C22:C23)</f>
+        <f t="shared" ref="C24:L24" si="49">SUM(C22:C23)</f>
         <v>-62427</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-60750</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-70981</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-103880</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-151141</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-207526</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-228074</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-315349</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-278421</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-289539</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" ref="M24:R24" si="49">SUM(M22:M23)</f>
+        <f t="shared" ref="M24:R24" si="50">SUM(M22:M23)</f>
         <v>-142125.45038021263</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-95604.113725919975</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-46437.51648762729</v>
       </c>
       <c r="P24" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-11854.214109494351</v>
       </c>
       <c r="Q24" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>30765.620434876531</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>77178.142040648498</v>
       </c>
       <c r="T24" s="2">
@@ -2569,7 +2658,7 @@
         <v>-875624</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-805689.5641061326</v>
       </c>
       <c r="W24" s="2">
@@ -2578,55 +2667,55 @@
       </c>
       <c r="X24" s="2">
         <f>X22+X23</f>
-        <v>867154.16465954296</v>
+        <v>1186565.672911996</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" ref="Y24:AJ24" si="50">Y22+Y23</f>
-        <v>2077061.5747946333</v>
+        <f t="shared" ref="Y24:AJ24" si="51">Y22+Y23</f>
+        <v>2532222.9740543794</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" si="50"/>
-        <v>2302036.6111523686</v>
+        <f t="shared" si="51"/>
+        <v>2800713.8357676584</v>
       </c>
       <c r="AA24" s="2">
-        <f t="shared" si="50"/>
-        <v>2708296.811665582</v>
+        <f t="shared" si="51"/>
+        <v>3262472.207063661</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="50"/>
-        <v>2953616.430328018</v>
+        <f t="shared" si="51"/>
+        <v>3546847.6534397895</v>
       </c>
       <c r="AC24" s="2">
-        <f t="shared" si="50"/>
-        <v>3215462.4702094365</v>
+        <f t="shared" si="51"/>
+        <v>3849909.3944272562</v>
       </c>
       <c r="AD24" s="2">
-        <f t="shared" si="50"/>
-        <v>3712816.6273227711</v>
+        <f t="shared" si="51"/>
+        <v>4413436.3442132724</v>
       </c>
       <c r="AE24" s="2">
-        <f t="shared" si="50"/>
-        <v>4027279.9950770219</v>
+        <f t="shared" si="51"/>
+        <v>4775433.9701423598</v>
       </c>
       <c r="AF24" s="2">
-        <f t="shared" si="50"/>
-        <v>4362479.7574627791</v>
+        <f t="shared" si="51"/>
+        <v>5160763.2138918908</v>
       </c>
       <c r="AG24" s="2">
-        <f t="shared" si="50"/>
-        <v>4969932.6702709487</v>
+        <f t="shared" si="51"/>
+        <v>5846962.0296641244</v>
       </c>
       <c r="AH24" s="2">
-        <f t="shared" si="50"/>
-        <v>5369471.2478995752</v>
+        <f t="shared" si="51"/>
+        <v>6304119.1233987277</v>
       </c>
       <c r="AI24" s="2">
-        <f t="shared" si="50"/>
-        <v>5794933.2420305908</v>
+        <f t="shared" si="51"/>
+        <v>6790309.8044160921</v>
       </c>
       <c r="AJ24" s="2">
-        <f t="shared" si="50"/>
-        <v>6247908.7705887593</v>
+        <f t="shared" si="51"/>
+        <v>7307278.8924464267</v>
       </c>
     </row>
     <row r="25" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2668,15 +2757,15 @@
         <v>3553.136259505316</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" ref="N25:P25" si="51">N24*-0.025</f>
+        <f t="shared" ref="N25:P25" si="52">N24*-0.025</f>
         <v>2390.1028431479995</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1160.9379121906823</v>
       </c>
       <c r="P25" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>296.35535273735877</v>
       </c>
       <c r="Q25" s="2">
@@ -2695,7 +2784,7 @@
         <v>13039</v>
       </c>
       <c r="V25" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>13438.239102653315</v>
       </c>
       <c r="W25" s="2">
@@ -2704,55 +2793,55 @@
       </c>
       <c r="X25" s="2">
         <f>X24*-0.05</f>
-        <v>-43357.708232977151</v>
+        <v>-59328.283645599804</v>
       </c>
       <c r="Y25" s="2">
         <f>Y24*0.05</f>
-        <v>103853.07873973167</v>
+        <v>126611.14870271897</v>
       </c>
       <c r="Z25" s="2">
-        <f t="shared" ref="Z25:AJ25" si="52">Z24*0.05</f>
-        <v>115101.83055761844</v>
+        <f t="shared" ref="Z25:AJ25" si="53">Z24*0.05</f>
+        <v>140035.69178838292</v>
       </c>
       <c r="AA25" s="2">
-        <f t="shared" si="52"/>
-        <v>135414.84058327912</v>
+        <f t="shared" si="53"/>
+        <v>163123.61035318306</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" si="52"/>
-        <v>147680.8215164009</v>
+        <f t="shared" si="53"/>
+        <v>177342.3826719895</v>
       </c>
       <c r="AC25" s="2">
-        <f t="shared" si="52"/>
-        <v>160773.12351047184</v>
+        <f t="shared" si="53"/>
+        <v>192495.46972136281</v>
       </c>
       <c r="AD25" s="2">
-        <f t="shared" si="52"/>
-        <v>185640.83136613856</v>
+        <f t="shared" si="53"/>
+        <v>220671.81721066363</v>
       </c>
       <c r="AE25" s="2">
-        <f t="shared" si="52"/>
-        <v>201363.99975385109</v>
+        <f t="shared" si="53"/>
+        <v>238771.69850711801</v>
       </c>
       <c r="AF25" s="2">
-        <f t="shared" si="52"/>
-        <v>218123.98787313898</v>
+        <f t="shared" si="53"/>
+        <v>258038.16069459455</v>
       </c>
       <c r="AG25" s="2">
-        <f t="shared" si="52"/>
-        <v>248496.63351354745</v>
+        <f t="shared" si="53"/>
+        <v>292348.10148320621</v>
       </c>
       <c r="AH25" s="2">
-        <f t="shared" si="52"/>
-        <v>268473.56239497877</v>
+        <f t="shared" si="53"/>
+        <v>315205.9561699364</v>
       </c>
       <c r="AI25" s="2">
-        <f t="shared" si="52"/>
-        <v>289746.66210152954</v>
+        <f t="shared" si="53"/>
+        <v>339515.49022080464</v>
       </c>
       <c r="AJ25" s="2">
-        <f t="shared" si="52"/>
-        <v>312395.43852943799</v>
+        <f t="shared" si="53"/>
+        <v>365363.94462232135</v>
       </c>
     </row>
     <row r="26" spans="2:134" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2760,39 +2849,39 @@
         <v>44</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" ref="C26:L26" si="53">C24-C25</f>
+        <f t="shared" ref="C26:K26" si="54">C24-C25</f>
         <v>-63236</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-61900</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-74708</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-107599</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-154181</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-210693</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-229858</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-320397</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>-282267</v>
       </c>
       <c r="L26" s="4">
@@ -2800,27 +2889,27 @@
         <v>-293188</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" ref="M26:R26" si="54">M24-M25</f>
+        <f t="shared" ref="M26:R26" si="55">M24-M25</f>
         <v>-145678.58663971795</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-97994.216569067969</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-47598.454399817972</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>-12150.56946223171</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>31534.760945748443</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>79107.595591664707</v>
       </c>
       <c r="T26" s="4">
@@ -2839,448 +2928,448 @@
         <v>50893.332675363476</v>
       </c>
       <c r="X26" s="4">
-        <f t="shared" ref="X26:AJ26" si="55">X24-X25</f>
-        <v>910511.87289252016</v>
+        <f t="shared" ref="X26:AJ26" si="56">X24-X25</f>
+        <v>1245893.9565575959</v>
       </c>
       <c r="Y26" s="4">
-        <f t="shared" si="55"/>
-        <v>1973208.4960549017</v>
+        <f t="shared" si="56"/>
+        <v>2405611.8253516606</v>
       </c>
       <c r="Z26" s="4">
-        <f t="shared" si="55"/>
-        <v>2186934.7805947503</v>
+        <f t="shared" si="56"/>
+        <v>2660678.1439792756</v>
       </c>
       <c r="AA26" s="4">
-        <f t="shared" si="55"/>
-        <v>2572881.9710823027</v>
+        <f t="shared" si="56"/>
+        <v>3099348.596710478</v>
       </c>
       <c r="AB26" s="4">
-        <f t="shared" si="55"/>
-        <v>2805935.6088116169</v>
+        <f t="shared" si="56"/>
+        <v>3369505.2707678</v>
       </c>
       <c r="AC26" s="4">
-        <f t="shared" si="55"/>
-        <v>3054689.3466989645</v>
+        <f t="shared" si="56"/>
+        <v>3657413.9247058933</v>
       </c>
       <c r="AD26" s="4">
-        <f t="shared" si="55"/>
-        <v>3527175.7959566326</v>
+        <f t="shared" si="56"/>
+        <v>4192764.5270026089</v>
       </c>
       <c r="AE26" s="4">
-        <f t="shared" si="55"/>
-        <v>3825915.9953231709</v>
+        <f t="shared" si="56"/>
+        <v>4536662.2716352418</v>
       </c>
       <c r="AF26" s="4">
-        <f t="shared" si="55"/>
-        <v>4144355.7695896402</v>
+        <f t="shared" si="56"/>
+        <v>4902725.0531972963</v>
       </c>
       <c r="AG26" s="4">
-        <f t="shared" si="55"/>
-        <v>4721436.0367574012</v>
+        <f t="shared" si="56"/>
+        <v>5554613.9281809181</v>
       </c>
       <c r="AH26" s="4">
-        <f t="shared" si="55"/>
-        <v>5100997.6855045967</v>
+        <f t="shared" si="56"/>
+        <v>5988913.1672287909</v>
       </c>
       <c r="AI26" s="4">
-        <f t="shared" si="55"/>
-        <v>5505186.5799290612</v>
+        <f t="shared" si="56"/>
+        <v>6450794.3141952874</v>
       </c>
       <c r="AJ26" s="4">
-        <f t="shared" si="55"/>
-        <v>5935513.332059321</v>
+        <f t="shared" si="56"/>
+        <v>6941914.9478241056</v>
       </c>
       <c r="AK26" s="4">
-        <f t="shared" ref="AK26:BP26" si="56">AJ26*(1+$AM$30)</f>
-        <v>5876158.1987387277</v>
+        <f t="shared" ref="AK26:BP26" si="57">AJ26*(1+$AM$30)</f>
+        <v>6872495.7983458648</v>
       </c>
       <c r="AL26" s="4">
-        <f t="shared" si="56"/>
-        <v>5817396.6167513402</v>
+        <f t="shared" si="57"/>
+        <v>6803770.8403624063</v>
       </c>
       <c r="AM26" s="4">
-        <f t="shared" si="56"/>
-        <v>5759222.6505838269</v>
+        <f t="shared" si="57"/>
+        <v>6735733.1319587827</v>
       </c>
       <c r="AN26" s="4">
-        <f t="shared" si="56"/>
-        <v>5701630.4240779886</v>
+        <f t="shared" si="57"/>
+        <v>6668375.8006391944</v>
       </c>
       <c r="AO26" s="4">
-        <f t="shared" si="56"/>
-        <v>5644614.1198372087</v>
+        <f t="shared" si="57"/>
+        <v>6601692.0426328024</v>
       </c>
       <c r="AP26" s="4">
-        <f t="shared" si="56"/>
-        <v>5588167.9786388362</v>
+        <f t="shared" si="57"/>
+        <v>6535675.1222064747</v>
       </c>
       <c r="AQ26" s="4">
-        <f t="shared" si="56"/>
-        <v>5532286.2988524474</v>
+        <f t="shared" si="57"/>
+        <v>6470318.3709844099</v>
       </c>
       <c r="AR26" s="4">
-        <f t="shared" si="56"/>
-        <v>5476963.4358639233</v>
+        <f t="shared" si="57"/>
+        <v>6405615.1872745659</v>
       </c>
       <c r="AS26" s="4">
-        <f t="shared" si="56"/>
-        <v>5422193.8015052844</v>
+        <f t="shared" si="57"/>
+        <v>6341559.0354018202</v>
       </c>
       <c r="AT26" s="4">
-        <f t="shared" si="56"/>
-        <v>5367971.8634902313</v>
+        <f t="shared" si="57"/>
+        <v>6278143.4450478023</v>
       </c>
       <c r="AU26" s="4">
-        <f t="shared" si="56"/>
-        <v>5314292.1448553288</v>
+        <f t="shared" si="57"/>
+        <v>6215362.010597324</v>
       </c>
       <c r="AV26" s="4">
-        <f t="shared" si="56"/>
-        <v>5261149.2234067759</v>
+        <f t="shared" si="57"/>
+        <v>6153208.3904913506</v>
       </c>
       <c r="AW26" s="4">
-        <f t="shared" si="56"/>
-        <v>5208537.7311727079</v>
+        <f t="shared" si="57"/>
+        <v>6091676.3065864369</v>
       </c>
       <c r="AX26" s="4">
-        <f t="shared" si="56"/>
-        <v>5156452.3538609808</v>
+        <f t="shared" si="57"/>
+        <v>6030759.5435205726</v>
       </c>
       <c r="AY26" s="4">
-        <f t="shared" si="56"/>
-        <v>5104887.8303223709</v>
+        <f t="shared" si="57"/>
+        <v>5970451.9480853667</v>
       </c>
       <c r="AZ26" s="4">
-        <f t="shared" si="56"/>
-        <v>5053838.9520191476</v>
+        <f t="shared" si="57"/>
+        <v>5910747.4286045134</v>
       </c>
       <c r="BA26" s="4">
-        <f t="shared" si="56"/>
-        <v>5003300.562498956</v>
+        <f t="shared" si="57"/>
+        <v>5851639.9543184685</v>
       </c>
       <c r="BB26" s="4">
-        <f t="shared" si="56"/>
-        <v>4953267.556873966</v>
+        <f t="shared" si="57"/>
+        <v>5793123.5547752837</v>
       </c>
       <c r="BC26" s="4">
-        <f t="shared" si="56"/>
-        <v>4903734.8813052261</v>
+        <f t="shared" si="57"/>
+        <v>5735192.3192275306</v>
       </c>
       <c r="BD26" s="4">
-        <f t="shared" si="56"/>
-        <v>4854697.5324921738</v>
+        <f t="shared" si="57"/>
+        <v>5677840.3960352549</v>
       </c>
       <c r="BE26" s="4">
-        <f t="shared" si="56"/>
-        <v>4806150.5571672516</v>
+        <f t="shared" si="57"/>
+        <v>5621061.9920749022</v>
       </c>
       <c r="BF26" s="4">
-        <f t="shared" si="56"/>
-        <v>4758089.0515955789</v>
+        <f t="shared" si="57"/>
+        <v>5564851.372154153</v>
       </c>
       <c r="BG26" s="4">
-        <f t="shared" si="56"/>
-        <v>4710508.1610796228</v>
+        <f t="shared" si="57"/>
+        <v>5509202.8584326115</v>
       </c>
       <c r="BH26" s="4">
-        <f t="shared" si="56"/>
-        <v>4663403.0794688268</v>
+        <f t="shared" si="57"/>
+        <v>5454110.8298482848</v>
       </c>
       <c r="BI26" s="4">
-        <f t="shared" si="56"/>
-        <v>4616769.0486741383</v>
+        <f t="shared" si="57"/>
+        <v>5399569.7215498015</v>
       </c>
       <c r="BJ26" s="4">
-        <f t="shared" si="56"/>
-        <v>4570601.358187397</v>
+        <f t="shared" si="57"/>
+        <v>5345574.0243343031</v>
       </c>
       <c r="BK26" s="4">
-        <f t="shared" si="56"/>
-        <v>4524895.3446055232</v>
+        <f t="shared" si="57"/>
+        <v>5292118.2840909604</v>
       </c>
       <c r="BL26" s="4">
-        <f t="shared" si="56"/>
-        <v>4479646.3911594683</v>
+        <f t="shared" si="57"/>
+        <v>5239197.1012500506</v>
       </c>
       <c r="BM26" s="4">
-        <f t="shared" si="56"/>
-        <v>4434849.9272478735</v>
+        <f t="shared" si="57"/>
+        <v>5186805.1302375505</v>
       </c>
       <c r="BN26" s="4">
-        <f t="shared" si="56"/>
-        <v>4390501.4279753948</v>
+        <f t="shared" si="57"/>
+        <v>5134937.0789351752</v>
       </c>
       <c r="BO26" s="4">
-        <f t="shared" si="56"/>
-        <v>4346596.4136956409</v>
+        <f t="shared" si="57"/>
+        <v>5083587.7081458233</v>
       </c>
       <c r="BP26" s="4">
-        <f t="shared" si="56"/>
-        <v>4303130.4495586846</v>
+        <f t="shared" si="57"/>
+        <v>5032751.8310643649</v>
       </c>
       <c r="BQ26" s="4">
-        <f t="shared" ref="BQ26:CV26" si="57">BP26*(1+$AM$30)</f>
-        <v>4260099.1450630976</v>
+        <f t="shared" ref="BQ26:CV26" si="58">BP26*(1+$AM$30)</f>
+        <v>4982424.3127537211</v>
       </c>
       <c r="BR26" s="4">
-        <f t="shared" si="57"/>
-        <v>4217498.1536124665</v>
+        <f t="shared" si="58"/>
+        <v>4932600.0696261842</v>
       </c>
       <c r="BS26" s="4">
-        <f t="shared" si="57"/>
-        <v>4175323.1720763417</v>
+        <f t="shared" si="58"/>
+        <v>4883274.0689299218</v>
       </c>
       <c r="BT26" s="4">
-        <f t="shared" si="57"/>
-        <v>4133569.9403555784</v>
+        <f t="shared" si="58"/>
+        <v>4834441.3282406228</v>
       </c>
       <c r="BU26" s="4">
-        <f t="shared" si="57"/>
-        <v>4092234.2409520228</v>
+        <f t="shared" si="58"/>
+        <v>4786096.9149582162</v>
       </c>
       <c r="BV26" s="4">
-        <f t="shared" si="57"/>
-        <v>4051311.8985425024</v>
+        <f t="shared" si="58"/>
+        <v>4738235.9458086342</v>
       </c>
       <c r="BW26" s="4">
-        <f t="shared" si="57"/>
-        <v>4010798.7795570772</v>
+        <f t="shared" si="58"/>
+        <v>4690853.5863505481</v>
       </c>
       <c r="BX26" s="4">
-        <f t="shared" si="57"/>
-        <v>3970690.7917615063</v>
+        <f t="shared" si="58"/>
+        <v>4643945.0504870424</v>
       </c>
       <c r="BY26" s="4">
-        <f t="shared" si="57"/>
-        <v>3930983.8838438913</v>
+        <f t="shared" si="58"/>
+        <v>4597505.5999821723</v>
       </c>
       <c r="BZ26" s="4">
-        <f t="shared" si="57"/>
-        <v>3891674.0450054524</v>
+        <f t="shared" si="58"/>
+        <v>4551530.5439823503</v>
       </c>
       <c r="CA26" s="4">
-        <f t="shared" si="57"/>
-        <v>3852757.3045553979</v>
+        <f t="shared" si="58"/>
+        <v>4506015.238542527</v>
       </c>
       <c r="CB26" s="4">
-        <f t="shared" si="57"/>
-        <v>3814229.7315098438</v>
+        <f t="shared" si="58"/>
+        <v>4460955.0861571012</v>
       </c>
       <c r="CC26" s="4">
-        <f t="shared" si="57"/>
-        <v>3776087.4341947455</v>
+        <f t="shared" si="58"/>
+        <v>4416345.5352955302</v>
       </c>
       <c r="CD26" s="4">
-        <f t="shared" si="57"/>
-        <v>3738326.559852798</v>
+        <f t="shared" si="58"/>
+        <v>4372182.0799425747</v>
       </c>
       <c r="CE26" s="4">
-        <f t="shared" si="57"/>
-        <v>3700943.2942542699</v>
+        <f t="shared" si="58"/>
+        <v>4328460.2591431485</v>
       </c>
       <c r="CF26" s="4">
-        <f t="shared" si="57"/>
-        <v>3663933.8613117272</v>
+        <f t="shared" si="58"/>
+        <v>4285175.6565517168</v>
       </c>
       <c r="CG26" s="4">
-        <f t="shared" si="57"/>
-        <v>3627294.5226986101</v>
+        <f t="shared" si="58"/>
+        <v>4242323.8999862</v>
       </c>
       <c r="CH26" s="4">
-        <f t="shared" si="57"/>
-        <v>3591021.5774716241</v>
+        <f t="shared" si="58"/>
+        <v>4199900.6609863378</v>
       </c>
       <c r="CI26" s="4">
-        <f t="shared" si="57"/>
-        <v>3555111.3616969078</v>
+        <f t="shared" si="58"/>
+        <v>4157901.6543764742</v>
       </c>
       <c r="CJ26" s="4">
-        <f t="shared" si="57"/>
-        <v>3519560.2480799388</v>
+        <f t="shared" si="58"/>
+        <v>4116322.6378327096</v>
       </c>
       <c r="CK26" s="4">
-        <f t="shared" si="57"/>
-        <v>3484364.6455991394</v>
+        <f t="shared" si="58"/>
+        <v>4075159.4114543824</v>
       </c>
       <c r="CL26" s="4">
-        <f t="shared" si="57"/>
-        <v>3449520.9991431478</v>
+        <f t="shared" si="58"/>
+        <v>4034407.8173398385</v>
       </c>
       <c r="CM26" s="4">
-        <f t="shared" si="57"/>
-        <v>3415025.7891517165</v>
+        <f t="shared" si="58"/>
+        <v>3994063.73916644</v>
       </c>
       <c r="CN26" s="4">
-        <f t="shared" si="57"/>
-        <v>3380875.5312601994</v>
+        <f t="shared" si="58"/>
+        <v>3954123.1017747754</v>
       </c>
       <c r="CO26" s="4">
-        <f t="shared" si="57"/>
-        <v>3347066.7759475973</v>
+        <f t="shared" si="58"/>
+        <v>3914581.8707570275</v>
       </c>
       <c r="CP26" s="4">
-        <f t="shared" si="57"/>
-        <v>3313596.1081881211</v>
+        <f t="shared" si="58"/>
+        <v>3875436.0520494571</v>
       </c>
       <c r="CQ26" s="4">
-        <f t="shared" si="57"/>
-        <v>3280460.14710624</v>
+        <f t="shared" si="58"/>
+        <v>3836681.6915289625</v>
       </c>
       <c r="CR26" s="4">
-        <f t="shared" si="57"/>
-        <v>3247655.5456351778</v>
+        <f t="shared" si="58"/>
+        <v>3798314.874613673</v>
       </c>
       <c r="CS26" s="4">
-        <f t="shared" si="57"/>
-        <v>3215178.9901788258</v>
+        <f t="shared" si="58"/>
+        <v>3760331.7258675364</v>
       </c>
       <c r="CT26" s="4">
-        <f t="shared" si="57"/>
-        <v>3183027.2002770375</v>
+        <f t="shared" si="58"/>
+        <v>3722728.4086088608</v>
       </c>
       <c r="CU26" s="4">
-        <f t="shared" si="57"/>
-        <v>3151196.9282742669</v>
+        <f t="shared" si="58"/>
+        <v>3685501.1245227722</v>
       </c>
       <c r="CV26" s="4">
-        <f t="shared" si="57"/>
-        <v>3119684.9589915243</v>
+        <f t="shared" si="58"/>
+        <v>3648646.1132775443</v>
       </c>
       <c r="CW26" s="4">
-        <f t="shared" ref="CW26:ED26" si="58">CV26*(1+$AM$30)</f>
-        <v>3088488.1094016088</v>
+        <f t="shared" ref="CW26:ED26" si="59">CV26*(1+$AM$30)</f>
+        <v>3612159.6521447687</v>
       </c>
       <c r="CX26" s="4">
-        <f t="shared" si="58"/>
-        <v>3057603.2283075927</v>
+        <f t="shared" si="59"/>
+        <v>3576038.0556233209</v>
       </c>
       <c r="CY26" s="4">
-        <f t="shared" si="58"/>
-        <v>3027027.1960245166</v>
+        <f t="shared" si="59"/>
+        <v>3540277.6750670876</v>
       </c>
       <c r="CZ26" s="4">
-        <f t="shared" si="58"/>
-        <v>2996756.9240642716</v>
+        <f t="shared" si="59"/>
+        <v>3504874.8983164169</v>
       </c>
       <c r="DA26" s="4">
-        <f t="shared" si="58"/>
-        <v>2966789.3548236289</v>
+        <f t="shared" si="59"/>
+        <v>3469826.1493332526</v>
       </c>
       <c r="DB26" s="4">
-        <f t="shared" si="58"/>
-        <v>2937121.4612753927</v>
+        <f t="shared" si="59"/>
+        <v>3435127.8878399199</v>
       </c>
       <c r="DC26" s="4">
-        <f t="shared" si="58"/>
-        <v>2907750.2466626386</v>
+        <f t="shared" si="59"/>
+        <v>3400776.6089615207</v>
       </c>
       <c r="DD26" s="4">
-        <f t="shared" si="58"/>
-        <v>2878672.7441960122</v>
+        <f t="shared" si="59"/>
+        <v>3366768.8428719053</v>
       </c>
       <c r="DE26" s="4">
-        <f t="shared" si="58"/>
-        <v>2849886.0167540521</v>
+        <f t="shared" si="59"/>
+        <v>3333101.1544431862</v>
       </c>
       <c r="DF26" s="4">
-        <f t="shared" si="58"/>
-        <v>2821387.1565865115</v>
+        <f t="shared" si="59"/>
+        <v>3299770.1428987542</v>
       </c>
       <c r="DG26" s="4">
-        <f t="shared" si="58"/>
-        <v>2793173.2850206462</v>
+        <f t="shared" si="59"/>
+        <v>3266772.4414697667</v>
       </c>
       <c r="DH26" s="4">
-        <f t="shared" si="58"/>
-        <v>2765241.5521704396</v>
+        <f t="shared" si="59"/>
+        <v>3234104.7170550688</v>
       </c>
       <c r="DI26" s="4">
-        <f t="shared" si="58"/>
-        <v>2737589.136648735</v>
+        <f t="shared" si="59"/>
+        <v>3201763.6698845183</v>
       </c>
       <c r="DJ26" s="4">
-        <f t="shared" si="58"/>
-        <v>2710213.2452822477</v>
+        <f t="shared" si="59"/>
+        <v>3169746.0331856729</v>
       </c>
       <c r="DK26" s="4">
-        <f t="shared" si="58"/>
-        <v>2683111.1128294254</v>
+        <f t="shared" si="59"/>
+        <v>3138048.5728538162</v>
       </c>
       <c r="DL26" s="4">
-        <f t="shared" si="58"/>
-        <v>2656280.001701131</v>
+        <f t="shared" si="59"/>
+        <v>3106668.0871252781</v>
       </c>
       <c r="DM26" s="4">
-        <f t="shared" si="58"/>
-        <v>2629717.2016841196</v>
+        <f t="shared" si="59"/>
+        <v>3075601.4062540252</v>
       </c>
       <c r="DN26" s="4">
-        <f t="shared" si="58"/>
-        <v>2603420.0296672783</v>
+        <f t="shared" si="59"/>
+        <v>3044845.392191485</v>
       </c>
       <c r="DO26" s="4">
-        <f t="shared" si="58"/>
-        <v>2577385.8293706053</v>
+        <f t="shared" si="59"/>
+        <v>3014396.93826957</v>
       </c>
       <c r="DP26" s="4">
-        <f t="shared" si="58"/>
-        <v>2551611.9710768992</v>
+        <f t="shared" si="59"/>
+        <v>2984252.9688868742</v>
       </c>
       <c r="DQ26" s="4">
-        <f t="shared" si="58"/>
-        <v>2526095.8513661302</v>
+        <f t="shared" si="59"/>
+        <v>2954410.4391980055</v>
       </c>
       <c r="DR26" s="4">
-        <f t="shared" si="58"/>
-        <v>2500834.8928524689</v>
+        <f t="shared" si="59"/>
+        <v>2924866.3348060255</v>
       </c>
       <c r="DS26" s="4">
-        <f t="shared" si="58"/>
-        <v>2475826.5439239442</v>
+        <f t="shared" si="59"/>
+        <v>2895617.6714579654</v>
       </c>
       <c r="DT26" s="4">
-        <f t="shared" si="58"/>
-        <v>2451068.2784847049</v>
+        <f t="shared" si="59"/>
+        <v>2866661.4947433858</v>
       </c>
       <c r="DU26" s="4">
-        <f t="shared" si="58"/>
-        <v>2426557.5956998579</v>
+        <f t="shared" si="59"/>
+        <v>2837994.8797959518</v>
       </c>
       <c r="DV26" s="4">
-        <f t="shared" si="58"/>
-        <v>2402292.0197428595</v>
+        <f t="shared" si="59"/>
+        <v>2809614.9309979924</v>
       </c>
       <c r="DW26" s="4">
-        <f t="shared" si="58"/>
-        <v>2378269.0995454309</v>
+        <f t="shared" si="59"/>
+        <v>2781518.7816880126</v>
       </c>
       <c r="DX26" s="4">
-        <f t="shared" si="58"/>
-        <v>2354486.4085499765</v>
+        <f t="shared" si="59"/>
+        <v>2753703.5938711325</v>
       </c>
       <c r="DY26" s="4">
-        <f t="shared" si="58"/>
-        <v>2330941.5444644769</v>
+        <f t="shared" si="59"/>
+        <v>2726166.5579324211</v>
       </c>
       <c r="DZ26" s="4">
-        <f t="shared" si="58"/>
-        <v>2307632.1290198322</v>
+        <f t="shared" si="59"/>
+        <v>2698904.892353097</v>
       </c>
       <c r="EA26" s="4">
-        <f t="shared" si="58"/>
-        <v>2284555.807729634</v>
+        <f t="shared" si="59"/>
+        <v>2671915.8434295659</v>
       </c>
       <c r="EB26" s="4">
-        <f t="shared" si="58"/>
-        <v>2261710.2496523377</v>
+        <f t="shared" si="59"/>
+        <v>2645196.6849952703</v>
       </c>
       <c r="EC26" s="4">
-        <f t="shared" si="58"/>
-        <v>2239093.1471558143</v>
+        <f t="shared" si="59"/>
+        <v>2618744.7181453174</v>
       </c>
       <c r="ED26" s="4">
-        <f t="shared" si="58"/>
-        <v>2216702.2156842561</v>
+        <f t="shared" si="59"/>
+        <v>2592557.2709638644</v>
       </c>
     </row>
     <row r="27" spans="2:134" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3288,67 +3377,67 @@
         <v>45</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" ref="C27:L27" si="59">C26/C28</f>
+        <f t="shared" ref="C27:L27" si="60">C26/C28</f>
         <v>-0.51214850330439288</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>-0.49818913480885313</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>-0.59809462813225522</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>-0.8573830450130282</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>-1.2241736603491944</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>-1.663072563521695</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>-1.7817620885850272</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>-2.4439130434782608</v>
       </c>
       <c r="K27" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>-2.1274910307817541</v>
       </c>
       <c r="L27" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>-2.094454326596801</v>
       </c>
       <c r="M27" s="5">
-        <f t="shared" ref="M27:R27" si="60">M26/M28</f>
+        <f t="shared" ref="M27:R27" si="61">M26/M28</f>
         <v>-1.0406877023618435</v>
       </c>
       <c r="N27" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>-0.70004369508488862</v>
       </c>
       <c r="O27" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>-0.34003024938612525</v>
       </c>
       <c r="P27" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>-8.6800321912172976E-2</v>
       </c>
       <c r="Q27" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.22527564736966948</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.56512287628972591</v>
       </c>
       <c r="T27" s="5">
@@ -3367,56 +3456,56 @@
         <v>0.36356795236109724</v>
       </c>
       <c r="X27" s="5">
-        <f t="shared" ref="X27:AJ27" si="61">X26/X28</f>
-        <v>6.5044460605396379</v>
+        <f t="shared" ref="X27:AJ27" si="62">X26/X28</f>
+        <v>8.9003233003835884</v>
       </c>
       <c r="Y27" s="5">
-        <f t="shared" si="61"/>
-        <v>14.096058064585712</v>
+        <f t="shared" si="62"/>
+        <v>17.185028363098809</v>
       </c>
       <c r="Z27" s="5">
-        <f t="shared" si="61"/>
-        <v>15.622859780078654</v>
+        <f t="shared" si="62"/>
+        <v>19.007151896868017</v>
       </c>
       <c r="AA27" s="5">
-        <f t="shared" si="61"/>
-        <v>18.379960217185676</v>
+        <f t="shared" si="62"/>
+        <v>22.140892799200461</v>
       </c>
       <c r="AB27" s="5">
-        <f t="shared" si="61"/>
-        <v>20.04483122101696</v>
+        <f t="shared" si="62"/>
+        <v>24.070817676202111</v>
       </c>
       <c r="AC27" s="5">
-        <f t="shared" si="61"/>
-        <v>21.821859416493176</v>
+        <f t="shared" si="62"/>
+        <v>26.12755780849027</v>
       </c>
       <c r="AD27" s="5">
-        <f t="shared" si="61"/>
-        <v>25.197172484920543</v>
+        <f t="shared" si="62"/>
+        <v>29.951955073134659</v>
       </c>
       <c r="AE27" s="5">
-        <f t="shared" si="61"/>
-        <v>27.331290194689146</v>
+        <f t="shared" si="62"/>
+        <v>32.408665849676332</v>
       </c>
       <c r="AF27" s="5">
-        <f t="shared" si="61"/>
-        <v>29.606136242183982</v>
+        <f t="shared" si="62"/>
+        <v>35.023717545682665</v>
       </c>
       <c r="AG27" s="5">
-        <f t="shared" si="61"/>
-        <v>33.728638740114164</v>
+        <f t="shared" si="62"/>
+        <v>39.680632135194401</v>
       </c>
       <c r="AH27" s="5">
-        <f t="shared" si="61"/>
-        <v>36.440122625637372</v>
+        <f t="shared" si="62"/>
+        <v>42.783146290826679</v>
       </c>
       <c r="AI27" s="5">
-        <f t="shared" si="61"/>
-        <v>39.327536771815588</v>
+        <f t="shared" si="62"/>
+        <v>46.082698000437823</v>
       </c>
       <c r="AJ27" s="5">
-        <f t="shared" si="61"/>
-        <v>42.40167257495068</v>
+        <f t="shared" si="62"/>
+        <v>49.591128550067552</v>
       </c>
     </row>
     <row r="28" spans="2:134" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3458,23 +3547,23 @@
         <v>139983</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" ref="N28:R28" si="62">M28</f>
+        <f t="shared" ref="N28:R28" si="63">M28</f>
         <v>139983</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>139983</v>
       </c>
       <c r="P28" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>139983</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>139983</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>139983</v>
       </c>
       <c r="T28" s="2">
@@ -3497,51 +3586,51 @@
         <v>139983</v>
       </c>
       <c r="Y28" s="2">
-        <f t="shared" ref="Y28:AJ28" si="63">X28</f>
+        <f t="shared" ref="Y28:AJ28" si="64">X28</f>
         <v>139983</v>
       </c>
       <c r="Z28" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>139983</v>
       </c>
       <c r="AA28" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>139983</v>
       </c>
       <c r="AB28" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>139983</v>
       </c>
       <c r="AC28" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>139983</v>
       </c>
       <c r="AD28" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>139983</v>
       </c>
       <c r="AE28" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>139983</v>
       </c>
       <c r="AF28" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>139983</v>
       </c>
       <c r="AG28" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>139983</v>
       </c>
       <c r="AH28" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>139983</v>
       </c>
       <c r="AI28" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>139983</v>
       </c>
       <c r="AJ28" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>139983</v>
       </c>
     </row>
@@ -3557,28 +3646,40 @@
       <c r="B30" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="C30" s="2">
+        <f t="shared" ref="C30:L30" si="65">C12*1000/C6</f>
+        <v>82124.883875248837</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="65"/>
+        <v>87668.834873901636</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="65"/>
+        <v>76580.0292422809</v>
+      </c>
       <c r="G30" s="2">
-        <f t="shared" ref="G30:L30" si="64">G12*1000/G6</f>
+        <f t="shared" si="65"/>
         <v>80046.594982078852</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>68563.2857031311</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>65125.276907799249</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>79575.906532734909</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>66154.996776273372</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>64423.657672390298</v>
       </c>
       <c r="M30" s="2">
@@ -3586,92 +3687,92 @@
         <v>64423.657672390298</v>
       </c>
       <c r="N30" s="2">
-        <f t="shared" ref="N30:R30" si="65">M30</f>
+        <f t="shared" ref="N30:R30" si="66">M30</f>
         <v>64423.657672390298</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>64423.657672390298</v>
       </c>
       <c r="P30" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>64423.657672390298</v>
       </c>
       <c r="Q30" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>64423.657672390298</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>64423.657672390298</v>
       </c>
       <c r="T30" s="2">
-        <f>R30</f>
+        <f>AVERAGE(F30,D30,C30)</f>
+        <v>82124.582663810463</v>
+      </c>
+      <c r="U30" s="2">
+        <f>AVERAGE(G30:J30)</f>
+        <v>73327.766031436026</v>
+      </c>
+      <c r="V30" s="2">
+        <f>AVERAGE(K30:N30)</f>
+        <v>64856.492448361067</v>
+      </c>
+      <c r="W30" s="2">
+        <f>AVERAGE(O30:R30)</f>
         <v>64423.657672390298</v>
       </c>
-      <c r="U30" s="2">
-        <f>T30</f>
-        <v>64423.657672390298</v>
-      </c>
-      <c r="V30" s="2">
-        <f>U30*0.95</f>
+      <c r="X30" s="2">
+        <f t="shared" ref="W30:AJ30" si="67">W30*0.95</f>
         <v>61202.474788770778</v>
       </c>
-      <c r="W30" s="2">
-        <f t="shared" ref="W30:AJ30" si="66">V30*0.95</f>
+      <c r="Y30" s="2">
+        <f t="shared" si="67"/>
         <v>58142.351049332239</v>
       </c>
-      <c r="X30" s="2">
-        <f t="shared" si="66"/>
+      <c r="Z30" s="2">
+        <f t="shared" si="67"/>
         <v>55235.233496865621</v>
       </c>
-      <c r="Y30" s="2">
-        <f t="shared" si="66"/>
+      <c r="AA30" s="2">
+        <f t="shared" si="67"/>
         <v>52473.471822022337</v>
       </c>
-      <c r="Z30" s="2">
-        <f t="shared" si="66"/>
+      <c r="AB30" s="2">
+        <f t="shared" si="67"/>
         <v>49849.798230921217</v>
       </c>
-      <c r="AA30" s="2">
-        <f t="shared" si="66"/>
+      <c r="AC30" s="2">
+        <f t="shared" si="67"/>
         <v>47357.308319375152</v>
       </c>
-      <c r="AB30" s="2">
-        <f t="shared" si="66"/>
+      <c r="AD30" s="2">
+        <f t="shared" si="67"/>
         <v>44989.442903406394</v>
       </c>
-      <c r="AC30" s="2">
-        <f t="shared" si="66"/>
+      <c r="AE30" s="2">
+        <f t="shared" si="67"/>
         <v>42739.970758236072</v>
       </c>
-      <c r="AD30" s="2">
-        <f t="shared" si="66"/>
+      <c r="AF30" s="2">
+        <f t="shared" si="67"/>
         <v>40602.972220324264</v>
       </c>
-      <c r="AE30" s="2">
-        <f t="shared" si="66"/>
+      <c r="AG30" s="2">
+        <f t="shared" si="67"/>
         <v>38572.823609308049</v>
       </c>
-      <c r="AF30" s="2">
-        <f t="shared" si="66"/>
+      <c r="AH30" s="2">
+        <f t="shared" si="67"/>
         <v>36644.182428842643</v>
       </c>
-      <c r="AG30" s="2">
-        <f t="shared" si="66"/>
+      <c r="AI30" s="2">
+        <f t="shared" si="67"/>
         <v>34811.973307400513</v>
       </c>
-      <c r="AH30" s="2">
-        <f t="shared" si="66"/>
+      <c r="AJ30" s="2">
+        <f t="shared" si="67"/>
         <v>33071.374642030489</v>
-      </c>
-      <c r="AI30" s="2">
-        <f t="shared" si="66"/>
-        <v>31417.805909928964</v>
-      </c>
-      <c r="AJ30" s="2">
-        <f t="shared" si="66"/>
-        <v>29846.915614432513</v>
       </c>
       <c r="AL30" s="2" t="s">
         <v>59</v>
@@ -3695,7 +3796,7 @@
       </c>
       <c r="AM32" s="2">
         <f>NPV(AM31,W26:ED26)</f>
-        <v>29763303.674394269</v>
+        <v>35322871.228093103</v>
       </c>
     </row>
     <row r="33" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3704,7 +3805,7 @@
       </c>
       <c r="AM33" s="2">
         <f>+AM32+Main!J6*1000-Main!J7*1000</f>
-        <v>30485750.674394269</v>
+        <v>36045318.228093103</v>
       </c>
     </row>
     <row r="34" spans="2:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3712,59 +3813,127 @@
         <v>50</v>
       </c>
       <c r="G34" s="8">
-        <f t="shared" ref="G34:L34" si="67">G14/C14-1</f>
+        <f t="shared" ref="G34:L34" si="68">G14/C14-1</f>
         <v>0.51461142033899399</v>
       </c>
       <c r="H34" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.24127801556900708</v>
       </c>
       <c r="I34" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>9.9770604505261762E-2</v>
       </c>
       <c r="J34" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.26939323333970977</v>
       </c>
       <c r="K34" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.22041962803762183</v>
       </c>
       <c r="L34" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.32989415440806891</v>
       </c>
       <c r="M34" s="8">
-        <f t="shared" ref="M34:R34" si="68">M14/I14-1</f>
+        <f t="shared" ref="M34:T34" si="69">M14/I14-1</f>
         <v>0.82460600890824898</v>
       </c>
       <c r="N34" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.57782204031551965</v>
       </c>
       <c r="O34" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.86013600521816969</v>
       </c>
       <c r="P34" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.80559212005088354</v>
       </c>
       <c r="Q34" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.45381147633622709</v>
       </c>
       <c r="R34" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.40504318022934838</v>
+      </c>
+      <c r="T34" s="8" t="e">
+        <f t="shared" ref="T34:X34" si="70">T14/S14-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U34" s="8">
+        <f t="shared" si="70"/>
+        <v>0.26503241040084347</v>
+      </c>
+      <c r="V34" s="8">
+        <f t="shared" si="70"/>
+        <v>0.49341916656338913</v>
+      </c>
+      <c r="W34" s="8">
+        <f t="shared" si="70"/>
+        <v>0.58941920614026722</v>
+      </c>
+      <c r="X34" s="8">
+        <f>X14/W14-1</f>
+        <v>0.41119011981398668</v>
+      </c>
+      <c r="Y34" s="8">
+        <f t="shared" ref="Y34:AJ34" si="71">Y14/X14-1</f>
+        <v>0.41423542052107232</v>
+      </c>
+      <c r="Z34" s="8">
+        <f t="shared" si="71"/>
+        <v>4.6416926660974633E-2</v>
+      </c>
+      <c r="AA34" s="8">
+        <f t="shared" si="71"/>
+        <v>4.6489482143647676E-2</v>
+      </c>
+      <c r="AB34" s="8">
+        <f t="shared" si="71"/>
+        <v>4.6565644362384084E-2</v>
+      </c>
+      <c r="AC34" s="8">
+        <f t="shared" si="71"/>
+        <v>4.6645581247482859E-2</v>
+      </c>
+      <c r="AD34" s="8">
+        <f t="shared" si="71"/>
+        <v>4.6729467361887211E-2</v>
+      </c>
+      <c r="AE34" s="8">
+        <f t="shared" si="71"/>
+        <v>4.6817484037084522E-2</v>
+      </c>
+      <c r="AF34" s="8">
+        <f t="shared" si="71"/>
+        <v>4.6909819496979255E-2</v>
+      </c>
+      <c r="AG34" s="8">
+        <f t="shared" si="71"/>
+        <v>4.700666896761585E-2</v>
+      </c>
+      <c r="AH34" s="8">
+        <f t="shared" si="71"/>
+        <v>4.7108234770418811E-2</v>
+      </c>
+      <c r="AI34" s="8">
+        <f t="shared" si="71"/>
+        <v>4.7214726396425544E-2</v>
+      </c>
+      <c r="AJ34" s="8">
+        <f t="shared" si="71"/>
+        <v>4.7326360558785474E-2</v>
       </c>
       <c r="AL34" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AM34" s="5">
         <f>AM33/(Main!J4*1000)</f>
-        <v>205.02616599678711</v>
+        <v>242.41598894421423</v>
       </c>
     </row>
     <row r="35" spans="2:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3772,23 +3941,23 @@
         <v>57</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" ref="G35:K35" si="69">G25/G24</f>
+        <f t="shared" ref="G35:K35" si="72">G25/G24</f>
         <v>-2.011366869347166E-2</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>-1.5260738413499996E-2</v>
       </c>
       <c r="I35" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>-7.8220226768504954E-3</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>-1.6007661352977178E-2</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>-1.3813613197280377E-2</v>
       </c>
       <c r="L35" s="8">
@@ -3796,95 +3965,95 @@
         <v>-1.2602792715316417E-2</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" ref="M35:AJ35" si="70">M25/M24</f>
+        <f t="shared" ref="M35:AJ35" si="73">M25/M24</f>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="O35" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="P35" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="Q35" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="R35" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="T35" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>-3.1556378716807922E-2</v>
       </c>
       <c r="U35" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>-1.4891094807817053E-2</v>
       </c>
       <c r="V35" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>-1.6679177317584209E-2</v>
       </c>
       <c r="W35" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>-2.5000000000000005E-2</v>
       </c>
       <c r="X35" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>-0.05</v>
       </c>
       <c r="Y35" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>0.05</v>
       </c>
       <c r="Z35" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="AA35" s="8">
+        <f t="shared" si="73"/>
         <v>0.05</v>
       </c>
-      <c r="AA35" s="8">
-        <f t="shared" si="70"/>
+      <c r="AB35" s="8">
+        <f t="shared" si="73"/>
         <v>5.000000000000001E-2</v>
       </c>
-      <c r="AB35" s="8">
-        <f t="shared" si="70"/>
+      <c r="AC35" s="8">
+        <f t="shared" si="73"/>
         <v>0.05</v>
       </c>
-      <c r="AC35" s="8">
-        <f t="shared" si="70"/>
+      <c r="AD35" s="8">
+        <f t="shared" si="73"/>
         <v>0.05</v>
       </c>
-      <c r="AD35" s="8">
-        <f t="shared" si="70"/>
+      <c r="AE35" s="8">
+        <f t="shared" si="73"/>
         <v>0.05</v>
       </c>
-      <c r="AE35" s="8">
-        <f t="shared" si="70"/>
+      <c r="AF35" s="8">
+        <f t="shared" si="73"/>
         <v>0.05</v>
       </c>
-      <c r="AF35" s="8">
-        <f t="shared" si="70"/>
+      <c r="AG35" s="8">
+        <f t="shared" si="73"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="AH35" s="8">
+        <f t="shared" si="73"/>
         <v>0.05</v>
       </c>
-      <c r="AG35" s="8">
-        <f t="shared" si="70"/>
+      <c r="AI35" s="8">
+        <f t="shared" si="73"/>
         <v>0.05</v>
       </c>
-      <c r="AH35" s="8">
-        <f t="shared" si="70"/>
-        <v>0.05</v>
-      </c>
-      <c r="AI35" s="8">
-        <f t="shared" si="70"/>
-        <v>0.05</v>
-      </c>
       <c r="AJ35" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>0.05</v>
       </c>
       <c r="AL35" s="7" t="s">
@@ -3898,7 +4067,7 @@
     <row r="36" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="AM36" s="7">
         <f>AM34/AM35-1</f>
-        <v>2.3902147407047103E-2</v>
+        <v>0.21062719209056247</v>
       </c>
     </row>
     <row r="37" spans="2:39" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3906,67 +4075,67 @@
         <v>56</v>
       </c>
       <c r="C37" s="7">
-        <f t="shared" ref="C37:N37" si="71">C18/C14</f>
+        <f t="shared" ref="C37:N37" si="74">C18/C14</f>
         <v>0.24998791379149196</v>
       </c>
       <c r="D37" s="7">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.276850948009291</v>
       </c>
       <c r="E37" s="7">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.29566778272936028</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.27355249142590737</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.27670872877388603</v>
       </c>
       <c r="H37" s="7">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.22342969875682739</v>
       </c>
       <c r="I37" s="7">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.24711647980495074</v>
       </c>
       <c r="J37" s="7">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.17998005564984243</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.22010238455583375</v>
       </c>
       <c r="L37" s="7">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.21635615901204472</v>
       </c>
       <c r="M37" s="7">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.25</v>
       </c>
       <c r="N37" s="7">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>0.25</v>
       </c>
       <c r="O37" s="7">
-        <f t="shared" ref="O37:R37" si="72">O18/O14</f>
+        <f t="shared" ref="O37:R37" si="75">O18/O14</f>
         <v>0.25</v>
       </c>
       <c r="P37" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.25</v>
       </c>
       <c r="Q37" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.25</v>
       </c>
       <c r="R37" s="7">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>0.25</v>
       </c>
     </row>
@@ -3998,23 +4167,23 @@
         <v>-87205.586639717949</v>
       </c>
       <c r="N41" s="2">
-        <f t="shared" ref="N41:R41" si="73">M41+N26</f>
+        <f t="shared" ref="N41:R41" si="76">M41+N26</f>
         <v>-185199.80320878592</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>-232798.25760860389</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>-244948.8270708356</v>
       </c>
       <c r="Q41" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>-213414.06612508715</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>-134306.47053342243</v>
       </c>
       <c r="W41" s="2">
@@ -4023,55 +4192,55 @@
       </c>
       <c r="X41" s="2">
         <f>W41+X26</f>
-        <v>776205.40235909773</v>
+        <v>1111587.4860241734</v>
       </c>
       <c r="Y41" s="2">
-        <f t="shared" ref="Y41:AJ41" si="74">X41+Y26</f>
-        <v>2749413.8984139995</v>
+        <f t="shared" ref="Y41:AJ41" si="77">X41+Y26</f>
+        <v>3517199.311375834</v>
       </c>
       <c r="Z41" s="2">
-        <f t="shared" si="74"/>
-        <v>4936348.6790087502</v>
+        <f t="shared" si="77"/>
+        <v>6177877.4553551096</v>
       </c>
       <c r="AA41" s="2">
-        <f t="shared" si="74"/>
-        <v>7509230.650091053</v>
+        <f t="shared" si="77"/>
+        <v>9277226.0520655885</v>
       </c>
       <c r="AB41" s="2">
-        <f t="shared" si="74"/>
-        <v>10315166.258902669</v>
+        <f t="shared" si="77"/>
+        <v>12646731.322833389</v>
       </c>
       <c r="AC41" s="2">
-        <f t="shared" si="74"/>
-        <v>13369855.605601633</v>
+        <f t="shared" si="77"/>
+        <v>16304145.247539282</v>
       </c>
       <c r="AD41" s="2">
-        <f t="shared" si="74"/>
-        <v>16897031.401558265</v>
+        <f t="shared" si="77"/>
+        <v>20496909.774541892</v>
       </c>
       <c r="AE41" s="2">
-        <f t="shared" si="74"/>
-        <v>20722947.396881435</v>
+        <f t="shared" si="77"/>
+        <v>25033572.046177134</v>
       </c>
       <c r="AF41" s="2">
-        <f t="shared" si="74"/>
-        <v>24867303.166471075</v>
+        <f t="shared" si="77"/>
+        <v>29936297.099374428</v>
       </c>
       <c r="AG41" s="2">
-        <f t="shared" si="74"/>
-        <v>29588739.203228477</v>
+        <f t="shared" si="77"/>
+        <v>35490911.027555346</v>
       </c>
       <c r="AH41" s="2">
-        <f t="shared" si="74"/>
-        <v>34689736.888733074</v>
+        <f t="shared" si="77"/>
+        <v>41479824.194784135</v>
       </c>
       <c r="AI41" s="2">
-        <f t="shared" si="74"/>
-        <v>40194923.468662135</v>
+        <f t="shared" si="77"/>
+        <v>47930618.508979425</v>
       </c>
       <c r="AJ41" s="2">
-        <f t="shared" si="74"/>
-        <v>46130436.800721459</v>
+        <f t="shared" si="77"/>
+        <v>54872533.45680353</v>
       </c>
     </row>
     <row r="42" spans="2:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
